--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
@@ -1761,10 +1761,10 @@
         <v>1.01</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L2">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="M2">
         <v>1000</v>
@@ -1773,7 +1773,7 @@
         <v>1.01</v>
       </c>
       <c r="O2">
-        <v>110</v>
+        <v>6.4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>950</v>
       </c>
       <c r="L3">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M3">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="N3">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="O3">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2161,10 +2161,10 @@
         <v>1.39</v>
       </c>
       <c r="M4">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="N4">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O4">
         <v>3.55</v>
@@ -3519,19 +3519,19 @@
         <v>163</v>
       </c>
       <c r="F11">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G11">
         <v>19.5</v>
       </c>
       <c r="H11">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="I11">
         <v>16</v>
       </c>
       <c r="J11">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="K11">
         <v>950</v>
@@ -4701,16 +4701,16 @@
         <v>169</v>
       </c>
       <c r="F17">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="G17">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H17">
         <v>6.2</v>
       </c>
       <c r="I17">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <v>4.2</v>
@@ -4719,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="L17">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="M17">
         <v>2.12</v>
@@ -4728,7 +4728,7 @@
         <v>1.9</v>
       </c>
       <c r="O17">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4901,16 +4901,16 @@
         <v>1.42</v>
       </c>
       <c r="G18">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H18">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="I18">
         <v>19</v>
       </c>
       <c r="J18">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K18">
         <v>950</v>
@@ -5113,16 +5113,16 @@
         <v>6.4</v>
       </c>
       <c r="L19">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O19">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -5492,28 +5492,28 @@
         <v>2.3</v>
       </c>
       <c r="G21">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H21">
         <v>2.94</v>
       </c>
       <c r="I21">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J21">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K21">
         <v>4.5</v>
       </c>
       <c r="L21">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N21">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="O21">
         <v>1.76</v>
@@ -5710,7 +5710,7 @@
         <v>2.26</v>
       </c>
       <c r="N22">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
         <v>2.68</v>
@@ -5892,7 +5892,7 @@
         <v>2.12</v>
       </c>
       <c r="I23">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J23">
         <v>2.94</v>
@@ -5901,7 +5901,7 @@
         <v>27</v>
       </c>
       <c r="L23">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="M23">
         <v>4.4</v>
@@ -5910,7 +5910,7 @@
         <v>1.29</v>
       </c>
       <c r="O23">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -6286,10 +6286,10 @@
         <v>2.36</v>
       </c>
       <c r="I25">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J25">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K25">
         <v>950</v>
@@ -6298,7 +6298,7 @@
         <v>1.98</v>
       </c>
       <c r="M25">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="N25">
         <v>1.6</v>
@@ -6483,7 +6483,7 @@
         <v>4.3</v>
       </c>
       <c r="I26">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>3.85</v>
@@ -6871,7 +6871,7 @@
         <v>2.86</v>
       </c>
       <c r="G28">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H28">
         <v>2.58</v>
@@ -7677,7 +7677,7 @@
         <v>2.72</v>
       </c>
       <c r="M32">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="N32">
         <v>1.56</v>
@@ -7689,7 +7689,7 @@
         <v>1.73</v>
       </c>
       <c r="Q32">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R32">
         <v>2.28</v>
@@ -7898,13 +7898,13 @@
         <v>18</v>
       </c>
       <c r="U33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V33">
         <v>13.5</v>
       </c>
       <c r="W33">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X33">
         <v>17.5</v>
@@ -8083,7 +8083,7 @@
         <v>1.73</v>
       </c>
       <c r="Q34">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R34">
         <v>2.28</v>
@@ -8119,7 +8119,7 @@
         <v>12.5</v>
       </c>
       <c r="AC34">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD34">
         <v>14.5</v>
@@ -8146,7 +8146,7 @@
         <v>11.5</v>
       </c>
       <c r="AL34">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM34">
         <v>11.5</v>
@@ -9232,13 +9232,13 @@
         <v>192</v>
       </c>
       <c r="F40">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G40">
         <v>240</v>
       </c>
       <c r="H40">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I40">
         <v>3.45</v>
@@ -9668,7 +9668,7 @@
         <v>1000</v>
       </c>
       <c r="T42">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="U42">
         <v>1000</v>
@@ -10223,7 +10223,7 @@
         <v>400</v>
       </c>
       <c r="H45">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I45">
         <v>410</v>
@@ -10629,16 +10629,16 @@
         <v>4.9</v>
       </c>
       <c r="L47">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="P47">
         <v>1.01</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="437">
   <si>
     <t>League</t>
   </si>
@@ -862,6 +862,9 @@
     <t>1.227615168</t>
   </si>
   <si>
+    <t>1.227967132</t>
+  </si>
+  <si>
     <t>1.227670797</t>
   </si>
   <si>
@@ -1099,9 +1102,36 @@
     <t>1.227942336</t>
   </si>
   <si>
+    <t>1.227646271</t>
+  </si>
+  <si>
+    <t>1.227902603</t>
+  </si>
+  <si>
+    <t>1.227945983</t>
+  </si>
+  <si>
+    <t>1.227894910</t>
+  </si>
+  <si>
+    <t>1.227943073</t>
+  </si>
+  <si>
+    <t>1.227927387</t>
+  </si>
+  <si>
+    <t>1.227854709</t>
+  </si>
+  <si>
+    <t>1.227762068</t>
+  </si>
+  <si>
     <t>1.227567776</t>
   </si>
   <si>
+    <t>1.227884187</t>
+  </si>
+  <si>
     <t>1.227568199</t>
   </si>
   <si>
@@ -1117,6 +1147,12 @@
     <t>1.227617327</t>
   </si>
   <si>
+    <t>1.227615167</t>
+  </si>
+  <si>
+    <t>1.227967216</t>
+  </si>
+  <si>
     <t>1.227670796</t>
   </si>
   <si>
@@ -1207,9 +1243,36 @@
     <t>1.227942346</t>
   </si>
   <si>
+    <t>1.227646196</t>
+  </si>
+  <si>
+    <t>1.227902528</t>
+  </si>
+  <si>
+    <t>1.227945908</t>
+  </si>
+  <si>
+    <t>1.227894835</t>
+  </si>
+  <si>
+    <t>1.227943083</t>
+  </si>
+  <si>
+    <t>1.227927397</t>
+  </si>
+  <si>
+    <t>1.227854634</t>
+  </si>
+  <si>
+    <t>1.227762080</t>
+  </si>
+  <si>
     <t>1.227567787</t>
   </si>
   <si>
+    <t>1.227884112</t>
+  </si>
+  <si>
     <t>1.227568210</t>
   </si>
   <si>
@@ -1223,6 +1286,12 @@
   </si>
   <si>
     <t>1.227617346</t>
+  </si>
+  <si>
+    <t>1.227615177</t>
+  </si>
+  <si>
+    <t>1.227967141</t>
   </si>
   <si>
     <t>1.227670806</t>
@@ -1833,34 +1902,34 @@
         <v>151</v>
       </c>
       <c r="F2">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G2">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
+        <v>4.3</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
+      </c>
+      <c r="J2">
         <v>3.4</v>
       </c>
-      <c r="I2">
-        <v>26</v>
-      </c>
-      <c r="J2">
-        <v>3.5</v>
-      </c>
       <c r="K2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="M2">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="N2">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="O2">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="P2">
         <v>1.01</v>
@@ -1983,7 +2052,7 @@
         <v>1000</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -2004,13 +2073,13 @@
         <v>247</v>
       </c>
       <c r="BK2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BL2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BM2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -2030,157 +2099,157 @@
         <v>152</v>
       </c>
       <c r="F3">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G3">
+        <v>2.98</v>
+      </c>
+      <c r="H3">
         <v>3.15</v>
       </c>
-      <c r="H3">
-        <v>3.05</v>
-      </c>
       <c r="I3">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
         <v>2.58</v>
       </c>
       <c r="K3">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L3">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M3">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="N3">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O3">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="P3">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="R3">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S3">
-        <v>1000</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="U3">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="W3">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="X3">
-        <v>5.3</v>
+        <v>15.5</v>
       </c>
       <c r="Y3">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z3">
-        <v>1.07</v>
+        <v>2.4</v>
       </c>
       <c r="AA3">
         <v>1000</v>
       </c>
       <c r="AB3">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC3">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD3">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="AE3">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AG3">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH3">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="AI3">
         <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AK3">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AL3">
         <v>11.5</v>
       </c>
       <c r="AM3">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>1.05</v>
+        <v>7.4</v>
       </c>
       <c r="AO3">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
       </c>
       <c r="AR3">
-        <v>1.47</v>
+        <v>2.3</v>
       </c>
       <c r="AS3">
         <v>1000</v>
       </c>
       <c r="AT3">
-        <v>1.47</v>
+        <v>2.22</v>
       </c>
       <c r="AU3">
         <v>1000</v>
       </c>
       <c r="AV3">
-        <v>1.06</v>
+        <v>2.22</v>
       </c>
       <c r="AW3">
         <v>1000</v>
       </c>
       <c r="AX3">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="AY3">
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="BA3">
         <v>1000</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="BC3">
         <v>1000</v>
       </c>
       <c r="BD3">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -2201,13 +2270,13 @@
         <v>248</v>
       </c>
       <c r="BK3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BL3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BM3" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2227,46 +2296,46 @@
         <v>153</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="I4">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="J4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L4">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="M4">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="Q4">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="R4">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="S4">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="T4">
         <v>21</v>
@@ -2275,109 +2344,109 @@
         <v>36</v>
       </c>
       <c r="V4">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="W4">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="X4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y4">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z4">
+        <v>7.6</v>
+      </c>
+      <c r="AA4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB4">
         <v>7</v>
       </c>
-      <c r="AA4">
-        <v>11.5</v>
-      </c>
-      <c r="AB4">
-        <v>4.2</v>
-      </c>
       <c r="AC4">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AD4">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE4">
         <v>22</v>
       </c>
       <c r="AF4">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG4">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI4">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ4">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="AK4">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AL4">
+        <v>7</v>
+      </c>
+      <c r="AM4">
+        <v>980</v>
+      </c>
+      <c r="AN4">
+        <v>6.6</v>
+      </c>
+      <c r="AO4">
+        <v>980</v>
+      </c>
+      <c r="AP4">
+        <v>6.6</v>
+      </c>
+      <c r="AQ4">
+        <v>980</v>
+      </c>
+      <c r="AR4">
+        <v>7.8</v>
+      </c>
+      <c r="AS4">
+        <v>1000</v>
+      </c>
+      <c r="AT4">
+        <v>7.6</v>
+      </c>
+      <c r="AU4">
+        <v>980</v>
+      </c>
+      <c r="AV4">
+        <v>7.6</v>
+      </c>
+      <c r="AW4">
+        <v>980</v>
+      </c>
+      <c r="AX4">
+        <v>7.6</v>
+      </c>
+      <c r="AY4">
+        <v>980</v>
+      </c>
+      <c r="AZ4">
+        <v>7.6</v>
+      </c>
+      <c r="BA4">
+        <v>980</v>
+      </c>
+      <c r="BB4">
+        <v>2.72</v>
+      </c>
+      <c r="BC4">
         <v>4.2</v>
       </c>
-      <c r="AM4">
-        <v>75</v>
-      </c>
-      <c r="AN4">
-        <v>4.1</v>
-      </c>
-      <c r="AO4">
-        <v>48</v>
-      </c>
-      <c r="AP4">
-        <v>4.1</v>
-      </c>
-      <c r="AQ4">
-        <v>50</v>
-      </c>
-      <c r="AR4">
-        <v>4.4</v>
-      </c>
-      <c r="AS4">
-        <v>1000</v>
-      </c>
-      <c r="AT4">
-        <v>4.4</v>
-      </c>
-      <c r="AU4">
-        <v>330</v>
-      </c>
-      <c r="AV4">
-        <v>4.4</v>
-      </c>
-      <c r="AW4">
-        <v>240</v>
-      </c>
-      <c r="AX4">
-        <v>4.4</v>
-      </c>
-      <c r="AY4">
-        <v>250</v>
-      </c>
-      <c r="AZ4">
-        <v>4.4</v>
-      </c>
-      <c r="BA4">
-        <v>420</v>
-      </c>
-      <c r="BB4">
-        <v>2.24</v>
-      </c>
-      <c r="BC4">
-        <v>4.5</v>
-      </c>
       <c r="BD4">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2398,13 +2467,13 @@
         <v>249</v>
       </c>
       <c r="BK4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BL4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BM4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2427,22 +2496,22 @@
         <v>1.04</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="H5">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J5">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="K5">
         <v>950</v>
       </c>
       <c r="L5">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M5">
         <v>980</v>
@@ -2451,7 +2520,7 @@
         <v>1.08</v>
       </c>
       <c r="O5">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="P5">
         <v>1.01</v>
@@ -2466,91 +2535,91 @@
         <v>1000</v>
       </c>
       <c r="T5">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U5">
         <v>1000</v>
       </c>
       <c r="V5">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="W5">
         <v>1000</v>
       </c>
       <c r="X5">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="Y5">
         <v>1000</v>
       </c>
       <c r="Z5">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="AA5">
         <v>1000</v>
       </c>
       <c r="AB5">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="AC5">
         <v>1000</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AE5">
         <v>1000</v>
       </c>
       <c r="AF5">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="AG5">
         <v>1000</v>
       </c>
       <c r="AH5">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AI5">
         <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="AK5">
         <v>1000</v>
       </c>
       <c r="AL5">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AM5">
         <v>1000</v>
       </c>
       <c r="AN5">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AO5">
         <v>1000</v>
       </c>
       <c r="AP5">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AQ5">
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU5">
         <v>1000</v>
       </c>
       <c r="AV5">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AW5">
         <v>1000</v>
@@ -2574,7 +2643,7 @@
         <v>1000</v>
       </c>
       <c r="BD5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2595,13 +2664,13 @@
         <v>250</v>
       </c>
       <c r="BK5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BL5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BM5" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2621,16 +2690,16 @@
         <v>155</v>
       </c>
       <c r="F6">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H6">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I6">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J6">
         <v>3.7</v>
@@ -2642,10 +2711,10 @@
         <v>2.1</v>
       </c>
       <c r="M6">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="N6">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O6">
         <v>1.91</v>
@@ -2663,10 +2732,10 @@
         <v>2.4</v>
       </c>
       <c r="T6">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="U6">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="V6">
         <v>9</v>
@@ -2675,22 +2744,22 @@
         <v>12</v>
       </c>
       <c r="X6">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y6">
         <v>15</v>
       </c>
       <c r="Z6">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AA6">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AB6">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AC6">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AD6">
         <v>7.2</v>
@@ -2708,70 +2777,70 @@
         <v>16.5</v>
       </c>
       <c r="AI6">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AJ6">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AK6">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL6">
         <v>12.5</v>
       </c>
       <c r="AM6">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AN6">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO6">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AQ6">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AR6">
+        <v>6.4</v>
+      </c>
+      <c r="AS6">
+        <v>980</v>
+      </c>
+      <c r="AT6">
+        <v>6</v>
+      </c>
+      <c r="AU6">
+        <v>980</v>
+      </c>
+      <c r="AV6">
         <v>6.2</v>
       </c>
-      <c r="AS6">
-        <v>80</v>
-      </c>
-      <c r="AT6">
-        <v>5.9</v>
-      </c>
-      <c r="AU6">
-        <v>46</v>
-      </c>
-      <c r="AV6">
+      <c r="AW6">
+        <v>980</v>
+      </c>
+      <c r="AX6">
+        <v>6.6</v>
+      </c>
+      <c r="AY6">
+        <v>980</v>
+      </c>
+      <c r="AZ6">
         <v>6</v>
       </c>
-      <c r="AW6">
-        <v>55</v>
-      </c>
-      <c r="AX6">
-        <v>6.2</v>
-      </c>
-      <c r="AY6">
-        <v>95</v>
-      </c>
-      <c r="AZ6">
-        <v>5.8</v>
-      </c>
       <c r="BA6">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="BB6">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BC6">
         <v>14.5</v>
       </c>
       <c r="BD6">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2792,13 +2861,13 @@
         <v>251</v>
       </c>
       <c r="BK6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BM6" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2818,34 +2887,34 @@
         <v>156</v>
       </c>
       <c r="F7">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="G7">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H7">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I7">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J7">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="L7">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="M7">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="N7">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="O7">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="P7">
         <v>1.01</v>
@@ -2860,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="T7">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="U7">
         <v>1000</v>
@@ -2968,7 +3037,7 @@
         <v>1000</v>
       </c>
       <c r="BD7">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2989,13 +3058,13 @@
         <v>252</v>
       </c>
       <c r="BK7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BL7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="BM7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3015,91 +3084,91 @@
         <v>157</v>
       </c>
       <c r="F8">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="G8">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="H8">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="I8">
-        <v>1.8</v>
+        <v>980</v>
       </c>
       <c r="J8">
-        <v>3.5</v>
+        <v>1.22</v>
       </c>
       <c r="K8">
-        <v>6.6</v>
+        <v>950</v>
       </c>
       <c r="L8">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="M8">
-        <v>2.16</v>
+        <v>110</v>
       </c>
       <c r="N8">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="O8">
-        <v>2.18</v>
+        <v>4.6</v>
       </c>
       <c r="P8">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="Q8">
         <v>1000</v>
       </c>
       <c r="R8">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="S8">
         <v>1000</v>
       </c>
       <c r="T8">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="U8">
         <v>1000</v>
       </c>
       <c r="V8">
+        <v>2.68</v>
+      </c>
+      <c r="W8">
+        <v>1000</v>
+      </c>
+      <c r="X8">
         <v>2.84</v>
       </c>
-      <c r="W8">
-        <v>1000</v>
-      </c>
-      <c r="X8">
-        <v>2.3</v>
-      </c>
       <c r="Y8">
         <v>1000</v>
       </c>
       <c r="Z8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA8">
         <v>1000</v>
       </c>
       <c r="AB8">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="AC8">
         <v>1000</v>
       </c>
       <c r="AD8">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="AE8">
         <v>1000</v>
       </c>
       <c r="AF8">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="AG8">
         <v>1000</v>
       </c>
       <c r="AH8">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="AI8">
         <v>1000</v>
@@ -3111,13 +3180,13 @@
         <v>1000</v>
       </c>
       <c r="AL8">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AM8">
         <v>1000</v>
       </c>
       <c r="AN8">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO8">
         <v>1000</v>
@@ -3186,13 +3255,13 @@
         <v>253</v>
       </c>
       <c r="BK8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BL8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BM8" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3212,73 +3281,73 @@
         <v>158</v>
       </c>
       <c r="F9">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="G9">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="H9">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I9">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="J9">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K9">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>1.89</v>
+        <v>1.27</v>
       </c>
       <c r="M9">
-        <v>2.18</v>
+        <v>990</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>1.03</v>
       </c>
       <c r="O9">
-        <v>2.12</v>
+        <v>4.6</v>
       </c>
       <c r="P9">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="Q9">
-        <v>1.93</v>
+        <v>1000</v>
       </c>
       <c r="R9">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="S9">
         <v>1000</v>
       </c>
       <c r="T9">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="U9">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="V9">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="W9">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="X9">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="Y9">
         <v>1000</v>
       </c>
       <c r="Z9">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="AA9">
         <v>1000</v>
       </c>
       <c r="AB9">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="AC9">
         <v>1000</v>
@@ -3287,82 +3356,82 @@
         <v>6.8</v>
       </c>
       <c r="AE9">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AF9">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="AG9">
         <v>1000</v>
       </c>
       <c r="AH9">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="AK9">
         <v>1000</v>
       </c>
       <c r="AL9">
-        <v>1.74</v>
+        <v>9.6</v>
       </c>
       <c r="AM9">
         <v>1000</v>
       </c>
       <c r="AN9">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="AO9">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AP9">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
       </c>
       <c r="AR9">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="AS9">
         <v>1000</v>
       </c>
       <c r="AT9">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="AU9">
         <v>1000</v>
       </c>
       <c r="AV9">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="AW9">
         <v>1000</v>
       </c>
       <c r="AX9">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="BA9">
         <v>1000</v>
       </c>
       <c r="BB9">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="BC9">
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -3383,13 +3452,13 @@
         <v>254</v>
       </c>
       <c r="BK9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="BM9" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3409,25 +3478,25 @@
         <v>159</v>
       </c>
       <c r="F10">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="G10">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="H10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I10">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="J10">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="K10">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M10">
         <v>980</v>
@@ -3436,7 +3505,7 @@
         <v>1.08</v>
       </c>
       <c r="O10">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="P10">
         <v>1.01</v>
@@ -3457,85 +3526,85 @@
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="AA10">
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="AC10">
         <v>1000</v>
       </c>
       <c r="AD10">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="AE10">
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="AK10">
         <v>1000</v>
       </c>
       <c r="AL10">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="AM10">
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AW10">
         <v>1000</v>
@@ -3559,7 +3628,7 @@
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3580,13 +3649,13 @@
         <v>255</v>
       </c>
       <c r="BK10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BL10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="BM10" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3612,10 +3681,10 @@
         <v>3.8</v>
       </c>
       <c r="H11">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I11">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J11">
         <v>3.4</v>
@@ -3651,112 +3720,112 @@
         <v>1.01</v>
       </c>
       <c r="U11">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="V11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W11">
         <v>1000</v>
       </c>
       <c r="X11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="Y11">
         <v>1000</v>
       </c>
       <c r="Z11">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="AA11">
         <v>1000</v>
       </c>
       <c r="AB11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AC11">
         <v>1000</v>
       </c>
       <c r="AD11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AE11">
         <v>1000</v>
       </c>
       <c r="AF11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AG11">
         <v>1000</v>
       </c>
       <c r="AH11">
-        <v>9</v>
+        <v>1.09</v>
       </c>
       <c r="AI11">
         <v>1000</v>
       </c>
       <c r="AJ11">
-        <v>3.7</v>
+        <v>1.09</v>
       </c>
       <c r="AK11">
         <v>1000</v>
       </c>
       <c r="AL11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AM11">
         <v>1000</v>
       </c>
       <c r="AN11">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="AO11">
         <v>1000</v>
       </c>
       <c r="AP11">
-        <v>17.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ11">
         <v>1000</v>
       </c>
       <c r="AR11">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS11">
         <v>1000</v>
       </c>
       <c r="AT11">
-        <v>5.5</v>
+        <v>1.09</v>
       </c>
       <c r="AU11">
         <v>1000</v>
       </c>
       <c r="AV11">
-        <v>5.7</v>
+        <v>1.09</v>
       </c>
       <c r="AW11">
         <v>1000</v>
       </c>
       <c r="AX11">
-        <v>8.800000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BA11">
         <v>1000</v>
       </c>
       <c r="BB11">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3777,13 +3846,13 @@
         <v>256</v>
       </c>
       <c r="BK11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BL11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BM11" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3803,7 +3872,7 @@
         <v>161</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="G12">
         <v>9.4</v>
@@ -3812,10 +3881,10 @@
         <v>1.47</v>
       </c>
       <c r="I12">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J12">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K12">
         <v>5.4</v>
@@ -3827,133 +3896,133 @@
         <v>2.18</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O12">
         <v>1.98</v>
       </c>
       <c r="P12">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q12">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R12">
         <v>1.84</v>
       </c>
       <c r="S12">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T12">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="U12">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="V12">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X12">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="Y12">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z12">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA12">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AB12">
-        <v>5.3</v>
+        <v>20</v>
       </c>
       <c r="AC12">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AD12">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE12">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AF12">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="AG12">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH12">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="AI12">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AJ12">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AK12">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL12">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AM12">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AN12">
-        <v>5.4</v>
+        <v>21</v>
       </c>
       <c r="AO12">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AP12">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ12">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AR12">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="AS12">
         <v>1000</v>
       </c>
       <c r="AT12">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="AU12">
         <v>1000</v>
       </c>
       <c r="AV12">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="AW12">
         <v>1000</v>
       </c>
       <c r="AX12">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="AY12">
         <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="BA12">
         <v>1000</v>
       </c>
       <c r="BB12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="BC12">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="BD12">
-        <v>1.87</v>
+        <v>2.28</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3974,13 +4043,13 @@
         <v>257</v>
       </c>
       <c r="BK12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BL12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BM12" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4000,7 +4069,7 @@
         <v>162</v>
       </c>
       <c r="F13">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G13">
         <v>11.5</v>
@@ -4015,28 +4084,28 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L13">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="M13">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R13">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S13">
         <v>2</v>
@@ -4048,16 +4117,16 @@
         <v>23</v>
       </c>
       <c r="V13">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="W13">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X13">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y13">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z13">
         <v>9.4</v>
@@ -4066,7 +4135,7 @@
         <v>14</v>
       </c>
       <c r="AB13">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AC13">
         <v>36</v>
@@ -4084,73 +4153,73 @@
         <v>11.5</v>
       </c>
       <c r="AH13">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI13">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ13">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AK13">
         <v>110</v>
       </c>
       <c r="AL13">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AM13">
         <v>44</v>
       </c>
       <c r="AN13">
-        <v>4.7</v>
+        <v>20</v>
       </c>
       <c r="AO13">
         <v>36</v>
       </c>
       <c r="AP13">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AQ13">
         <v>48</v>
       </c>
       <c r="AR13">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AS13">
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AU13">
         <v>190</v>
       </c>
       <c r="AV13">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AW13">
         <v>170</v>
       </c>
       <c r="AX13">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AY13">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AZ13">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="BA13">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BB13">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BC13">
         <v>7</v>
       </c>
       <c r="BD13">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -4171,13 +4240,13 @@
         <v>258</v>
       </c>
       <c r="BK13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BL13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BM13" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4197,7 +4266,7 @@
         <v>163</v>
       </c>
       <c r="F14">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G14">
         <v>1.32</v>
@@ -4206,112 +4275,112 @@
         <v>11.5</v>
       </c>
       <c r="I14">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="J14">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K14">
         <v>7</v>
       </c>
       <c r="L14">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="M14">
         <v>2.5</v>
       </c>
       <c r="N14">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O14">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q14">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="R14">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T14">
         <v>15.5</v>
       </c>
       <c r="U14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V14">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="W14">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="X14">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="Y14">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="Z14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AA14">
-        <v>680</v>
+        <v>980</v>
       </c>
       <c r="AB14">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC14">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14">
         <v>10.5</v>
       </c>
       <c r="AE14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF14">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AG14">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH14">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AI14">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AJ14">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AK14">
         <v>9.199999999999999</v>
       </c>
       <c r="AL14">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AM14">
         <v>13.5</v>
       </c>
       <c r="AN14">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AO14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP14">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AQ14">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AR14">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AS14">
         <v>12</v>
@@ -4323,31 +4392,31 @@
         <v>18</v>
       </c>
       <c r="AV14">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AW14">
         <v>55</v>
       </c>
       <c r="AX14">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AY14">
-        <v>270</v>
+        <v>980</v>
       </c>
       <c r="AZ14">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="BA14">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BB14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BC14">
-        <v>420</v>
+        <v>980</v>
       </c>
       <c r="BD14">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -4368,13 +4437,13 @@
         <v>259</v>
       </c>
       <c r="BK14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BL14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BM14" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4400,16 +4469,16 @@
         <v>8.6</v>
       </c>
       <c r="H15">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I15">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J15">
+        <v>5.7</v>
+      </c>
+      <c r="K15">
         <v>5.8</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
       </c>
       <c r="L15">
         <v>2.7</v>
@@ -4418,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O15">
         <v>1.59</v>
@@ -4427,10 +4496,10 @@
         <v>1.78</v>
       </c>
       <c r="Q15">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R15">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="S15">
         <v>2.28</v>
@@ -4448,16 +4517,16 @@
         <v>12</v>
       </c>
       <c r="X15">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z15">
         <v>11.5</v>
       </c>
       <c r="AA15">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB15">
         <v>34</v>
@@ -4484,7 +4553,7 @@
         <v>13</v>
       </c>
       <c r="AJ15">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK15">
         <v>80</v>
@@ -4520,7 +4589,7 @@
         <v>110</v>
       </c>
       <c r="AV15">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AW15">
         <v>90</v>
@@ -4535,16 +4604,16 @@
         <v>42</v>
       </c>
       <c r="BA15">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BB15">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BC15">
         <v>4.9</v>
       </c>
       <c r="BD15">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BE15">
         <v>980</v>
@@ -4565,13 +4634,13 @@
         <v>260</v>
       </c>
       <c r="BK15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BL15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BM15" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4591,88 +4660,88 @@
         <v>165</v>
       </c>
       <c r="F16">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G16">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="H16">
         <v>6.4</v>
       </c>
       <c r="I16">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>4.2</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L16">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="M16">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="N16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O16">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="P16">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q16">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R16">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="S16">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T16">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V16">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="W16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X16">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y16">
         <v>70</v>
       </c>
       <c r="Z16">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA16">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AB16">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC16">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD16">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AE16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF16">
         <v>19</v>
       </c>
       <c r="AG16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH16">
         <v>4.2</v>
@@ -4681,28 +4750,28 @@
         <v>130</v>
       </c>
       <c r="AJ16">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AK16">
         <v>11</v>
       </c>
       <c r="AL16">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AM16">
         <v>12.5</v>
       </c>
       <c r="AN16">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP16">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AQ16">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AR16">
         <v>12</v>
@@ -4714,34 +4783,34 @@
         <v>12.5</v>
       </c>
       <c r="AU16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV16">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AW16">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX16">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AY16">
+        <v>190</v>
+      </c>
+      <c r="AZ16">
+        <v>3.15</v>
+      </c>
+      <c r="BA16">
+        <v>11.5</v>
+      </c>
+      <c r="BB16">
+        <v>4.3</v>
+      </c>
+      <c r="BC16">
         <v>180</v>
       </c>
-      <c r="AZ16">
-        <v>3.1</v>
-      </c>
-      <c r="BA16">
-        <v>11</v>
-      </c>
-      <c r="BB16">
-        <v>4.2</v>
-      </c>
-      <c r="BC16">
-        <v>160</v>
-      </c>
       <c r="BD16">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4762,13 +4831,13 @@
         <v>261</v>
       </c>
       <c r="BK16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BL16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="BM16" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4791,7 +4860,7 @@
         <v>1.42</v>
       </c>
       <c r="G17">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H17">
         <v>7.2</v>
@@ -4800,145 +4869,145 @@
         <v>12</v>
       </c>
       <c r="J17">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K17">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L17">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M17">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
         <v>1.84</v>
       </c>
       <c r="O17">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="P17">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="Q17">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R17">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="S17">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="T17">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="U17">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="V17">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="W17">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="X17">
+        <v>4.6</v>
+      </c>
+      <c r="Y17">
+        <v>980</v>
+      </c>
+      <c r="Z17">
+        <v>4.7</v>
+      </c>
+      <c r="AA17">
+        <v>1000</v>
+      </c>
+      <c r="AB17">
+        <v>2.98</v>
+      </c>
+      <c r="AC17">
+        <v>980</v>
+      </c>
+      <c r="AD17">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE17">
+        <v>980</v>
+      </c>
+      <c r="AF17">
+        <v>4.3</v>
+      </c>
+      <c r="AG17">
+        <v>980</v>
+      </c>
+      <c r="AH17">
+        <v>4.6</v>
+      </c>
+      <c r="AI17">
+        <v>1000</v>
+      </c>
+      <c r="AJ17">
+        <v>3.15</v>
+      </c>
+      <c r="AK17">
+        <v>9.4</v>
+      </c>
+      <c r="AL17">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AM17">
+        <v>980</v>
+      </c>
+      <c r="AN17">
         <v>4.2</v>
       </c>
-      <c r="Y17">
-        <v>1000</v>
-      </c>
-      <c r="Z17">
-        <v>4.3</v>
-      </c>
-      <c r="AA17">
-        <v>1000</v>
-      </c>
-      <c r="AB17">
-        <v>5.7</v>
-      </c>
-      <c r="AC17">
-        <v>9</v>
-      </c>
-      <c r="AD17">
-        <v>3.3</v>
-      </c>
-      <c r="AE17">
-        <v>13.5</v>
-      </c>
-      <c r="AF17">
-        <v>3.95</v>
-      </c>
-      <c r="AG17">
-        <v>42</v>
-      </c>
-      <c r="AH17">
-        <v>4.3</v>
-      </c>
-      <c r="AI17">
-        <v>1000</v>
-      </c>
-      <c r="AJ17">
-        <v>6</v>
-      </c>
-      <c r="AK17">
-        <v>9.6</v>
-      </c>
-      <c r="AL17">
-        <v>3.25</v>
-      </c>
-      <c r="AM17">
-        <v>12.5</v>
-      </c>
-      <c r="AN17">
+      <c r="AO17">
+        <v>980</v>
+      </c>
+      <c r="AP17">
+        <v>4.6</v>
+      </c>
+      <c r="AQ17">
+        <v>1000</v>
+      </c>
+      <c r="AR17">
+        <v>10</v>
+      </c>
+      <c r="AS17">
+        <v>980</v>
+      </c>
+      <c r="AT17">
         <v>3.9</v>
       </c>
-      <c r="AO17">
-        <v>38</v>
-      </c>
-      <c r="AP17">
-        <v>4.2</v>
-      </c>
-      <c r="AQ17">
-        <v>1000</v>
-      </c>
-      <c r="AR17">
-        <v>3.4</v>
-      </c>
-      <c r="AS17">
-        <v>15</v>
-      </c>
-      <c r="AT17">
-        <v>3.6</v>
-      </c>
       <c r="AU17">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AV17">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AW17">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AX17">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AY17">
         <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="BA17">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BB17">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BC17">
         <v>1000</v>
       </c>
       <c r="BD17">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4959,13 +5028,13 @@
         <v>262</v>
       </c>
       <c r="BK17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BL17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="BM17" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4988,154 +5057,154 @@
         <v>1.64</v>
       </c>
       <c r="G18">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="H18">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="J18">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K18">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L18">
-        <v>2.18</v>
+        <v>1.27</v>
       </c>
       <c r="M18">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="N18">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="O18">
-        <v>1.84</v>
+        <v>4.6</v>
       </c>
       <c r="P18">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="Q18">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="R18">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="S18">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="T18">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="U18">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="V18">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W18">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="X18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="Y18">
         <v>1000</v>
       </c>
       <c r="Z18">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="AA18">
         <v>1000</v>
       </c>
       <c r="AB18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AC18">
         <v>1000</v>
       </c>
       <c r="AD18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AE18">
         <v>1000</v>
       </c>
       <c r="AF18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AG18">
         <v>1000</v>
       </c>
       <c r="AH18">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="AI18">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AK18">
         <v>1000</v>
       </c>
       <c r="AL18">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AM18">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AN18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AO18">
         <v>1000</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="AQ18">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AR18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AS18">
         <v>1000</v>
       </c>
       <c r="AT18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AU18">
         <v>1000</v>
       </c>
       <c r="AV18">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="AW18">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AX18">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="AY18">
         <v>1000</v>
       </c>
       <c r="AZ18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="BA18">
         <v>1000</v>
       </c>
       <c r="BB18">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="BC18">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="BD18">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="BE18">
         <v>1000</v>
@@ -5156,13 +5225,13 @@
         <v>263</v>
       </c>
       <c r="BK18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BL18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BM18" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5182,16 +5251,16 @@
         <v>168</v>
       </c>
       <c r="F19">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G19">
         <v>2.72</v>
       </c>
       <c r="H19">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="I19">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J19">
         <v>3.75</v>
@@ -5203,28 +5272,28 @@
         <v>2.28</v>
       </c>
       <c r="M19">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="N19">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="O19">
         <v>1.77</v>
       </c>
       <c r="P19">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q19">
         <v>1.69</v>
       </c>
       <c r="R19">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="S19">
         <v>2.66</v>
       </c>
       <c r="T19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U19">
         <v>22</v>
@@ -5236,25 +5305,25 @@
         <v>16.5</v>
       </c>
       <c r="X19">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y19">
         <v>23</v>
       </c>
       <c r="Z19">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA19">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB19">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC19">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD19">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AE19">
         <v>10</v>
@@ -5269,13 +5338,13 @@
         <v>21</v>
       </c>
       <c r="AI19">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AJ19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL19">
         <v>10.5</v>
@@ -5284,52 +5353,52 @@
         <v>13.5</v>
       </c>
       <c r="AN19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO19">
         <v>17.5</v>
       </c>
       <c r="AP19">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AQ19">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AR19">
         <v>5.8</v>
       </c>
       <c r="AS19">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AT19">
         <v>19</v>
       </c>
       <c r="AU19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV19">
-        <v>5.7</v>
+        <v>25</v>
       </c>
       <c r="AW19">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AX19">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AY19">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AZ19">
         <v>4.9</v>
       </c>
       <c r="BA19">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BB19">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BC19">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BD19">
         <v>6.6</v>
@@ -5353,13 +5422,13 @@
         <v>264</v>
       </c>
       <c r="BK19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BL19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BM19" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5382,52 +5451,52 @@
         <v>2.28</v>
       </c>
       <c r="G20">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H20">
         <v>2.96</v>
       </c>
       <c r="I20">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J20">
         <v>3.85</v>
       </c>
       <c r="K20">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M20">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N20">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O20">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="P20">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="Q20">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R20">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="S20">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T20">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="U20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V20">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W20">
         <v>18</v>
@@ -5442,13 +5511,13 @@
         <v>6</v>
       </c>
       <c r="AA20">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB20">
         <v>11</v>
       </c>
       <c r="AC20">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD20">
         <v>7.6</v>
@@ -5478,7 +5547,7 @@
         <v>9.4</v>
       </c>
       <c r="AM20">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN20">
         <v>13</v>
@@ -5487,52 +5556,52 @@
         <v>17.5</v>
       </c>
       <c r="AP20">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AQ20">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AR20">
         <v>5.6</v>
       </c>
       <c r="AS20">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AT20">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AU20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV20">
         <v>5.6</v>
       </c>
       <c r="AW20">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AX20">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AY20">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AZ20">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BA20">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BB20">
         <v>5.2</v>
       </c>
       <c r="BC20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20">
         <v>6.6</v>
       </c>
       <c r="BE20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF20" t="s">
         <v>217</v>
@@ -5550,13 +5619,13 @@
         <v>265</v>
       </c>
       <c r="BK20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BL20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BM20" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5576,160 +5645,160 @@
         <v>170</v>
       </c>
       <c r="F21">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G21">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H21">
         <v>3.95</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K21">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="M21">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N21">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="O21">
         <v>2.2</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF21" t="s">
         <v>218</v>
@@ -5747,13 +5816,13 @@
         <v>266</v>
       </c>
       <c r="BK21" t="s">
-        <v>313</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
+        <v>314</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>362</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5773,160 +5842,160 @@
         <v>171</v>
       </c>
       <c r="F22">
-        <v>2.16</v>
+        <v>1.1</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="I22">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="J22">
-        <v>3.05</v>
+        <v>1.2</v>
       </c>
       <c r="K22">
         <v>5.8</v>
       </c>
       <c r="L22">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M22">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="N22">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="O22">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF22" t="s">
         <v>219</v>
@@ -5944,13 +6013,13 @@
         <v>267</v>
       </c>
       <c r="BK22" t="s">
-        <v>314</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>363</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5970,160 +6039,160 @@
         <v>172</v>
       </c>
       <c r="F23">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="G23">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="H23">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="I23">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J23">
-        <v>2.96</v>
+        <v>2.08</v>
       </c>
       <c r="K23">
-        <v>8.800000000000001</v>
+        <v>950</v>
       </c>
       <c r="L23">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="M23">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="N23">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="O23">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF23" t="s">
         <v>220</v>
@@ -6141,13 +6210,13 @@
         <v>268</v>
       </c>
       <c r="BK23" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
+        <v>316</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>364</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6167,160 +6236,160 @@
         <v>173</v>
       </c>
       <c r="F24">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="G24">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="H24">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="I24">
-        <v>8.6</v>
+        <v>16.5</v>
       </c>
       <c r="J24">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K24">
-        <v>5.9</v>
+        <v>14</v>
       </c>
       <c r="L24">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="M24">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="N24">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="O24">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF24" t="s">
         <v>221</v>
@@ -6338,13 +6407,13 @@
         <v>269</v>
       </c>
       <c r="BK24" t="s">
-        <v>316</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BM24">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6370,13 +6439,13 @@
         <v>1.91</v>
       </c>
       <c r="H25">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I25">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J25">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K25">
         <v>4.4</v>
@@ -6385,139 +6454,139 @@
         <v>2.3</v>
       </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N25">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O25">
         <v>1.77</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF25" t="s">
         <v>222</v>
@@ -6535,13 +6604,13 @@
         <v>270</v>
       </c>
       <c r="BK25" t="s">
-        <v>317</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BM25">
-        <v>0</v>
+        <v>318</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>366</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6564,157 +6633,157 @@
         <v>1.97</v>
       </c>
       <c r="G26">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H26">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I26">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J26">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K26">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26">
         <v>2.14</v>
       </c>
       <c r="M26">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="N26">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O26">
         <v>1.88</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF26" t="s">
         <v>223</v>
@@ -6732,13 +6801,13 @@
         <v>271</v>
       </c>
       <c r="BK26" t="s">
-        <v>318</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6758,19 +6827,19 @@
         <v>176</v>
       </c>
       <c r="F27">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G27">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H27">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I27">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="J27">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K27">
         <v>3.7</v>
@@ -6779,139 +6848,139 @@
         <v>1.89</v>
       </c>
       <c r="M27">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <v>2.14</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF27" t="s">
         <v>224</v>
@@ -6929,13 +6998,13 @@
         <v>272</v>
       </c>
       <c r="BK27" t="s">
-        <v>319</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
+        <v>320</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>368</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6955,160 +7024,160 @@
         <v>177</v>
       </c>
       <c r="F28">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G28">
         <v>2.38</v>
       </c>
       <c r="H28">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I28">
         <v>3.2</v>
       </c>
       <c r="J28">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K28">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L28">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="M28">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="N28">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="O28">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF28" t="s">
         <v>225</v>
@@ -7126,13 +7195,13 @@
         <v>273</v>
       </c>
       <c r="BK28" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>369</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7152,10 +7221,10 @@
         <v>178</v>
       </c>
       <c r="F29">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G29">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H29">
         <v>2.58</v>
@@ -7170,7 +7239,7 @@
         <v>3.8</v>
       </c>
       <c r="L29">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="M29">
         <v>2.36</v>
@@ -7179,52 +7248,52 @@
         <v>1.74</v>
       </c>
       <c r="O29">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="P29">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q29">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R29">
         <v>2.52</v>
       </c>
       <c r="S29">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T29">
         <v>17.5</v>
       </c>
       <c r="U29">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="V29">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W29">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X29">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y29">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z29">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA29">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AB29">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC29">
         <v>15</v>
       </c>
       <c r="AD29">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE29">
         <v>8.4</v>
@@ -7233,70 +7302,70 @@
         <v>11</v>
       </c>
       <c r="AG29">
+        <v>11.5</v>
+      </c>
+      <c r="AH29">
+        <v>23</v>
+      </c>
+      <c r="AI29">
+        <v>24</v>
+      </c>
+      <c r="AJ29">
+        <v>19.5</v>
+      </c>
+      <c r="AK29">
+        <v>21</v>
+      </c>
+      <c r="AL29">
         <v>12</v>
       </c>
-      <c r="AH29">
-        <v>22</v>
-      </c>
-      <c r="AI29">
-        <v>30</v>
-      </c>
-      <c r="AJ29">
-        <v>19</v>
-      </c>
-      <c r="AK29">
-        <v>26</v>
-      </c>
-      <c r="AL29">
-        <v>11.5</v>
-      </c>
       <c r="AM29">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN29">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO29">
         <v>15</v>
       </c>
       <c r="AP29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ29">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR29">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AS29">
         <v>44</v>
       </c>
       <c r="AT29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29">
         <v>28</v>
       </c>
       <c r="AV29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AW29">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AX29">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AY29">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AZ29">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="BA29">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="BB29">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="BC29">
         <v>16.5</v>
@@ -7323,13 +7392,13 @@
         <v>274</v>
       </c>
       <c r="BK29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BL29" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="BM29" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7349,160 +7418,160 @@
         <v>179</v>
       </c>
       <c r="F30">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="G30">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H30">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I30">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="J30">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="K30">
-        <v>6.8</v>
+        <v>16.5</v>
       </c>
       <c r="L30">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="M30">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="N30">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="O30">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF30" t="s">
         <v>227</v>
@@ -7520,13 +7589,13 @@
         <v>275</v>
       </c>
       <c r="BK30" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL30">
-        <v>0</v>
-      </c>
-      <c r="BM30">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7546,16 +7615,16 @@
         <v>180</v>
       </c>
       <c r="F31">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G31">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H31">
+        <v>1.46</v>
+      </c>
+      <c r="I31">
         <v>1.47</v>
-      </c>
-      <c r="I31">
-        <v>1.48</v>
       </c>
       <c r="J31">
         <v>5.2</v>
@@ -7564,10 +7633,10 @@
         <v>5.3</v>
       </c>
       <c r="L31">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="N31">
         <v>1.56</v>
@@ -7576,16 +7645,16 @@
         <v>1.58</v>
       </c>
       <c r="P31">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q31">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R31">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="S31">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T31">
         <v>23</v>
@@ -7594,70 +7663,70 @@
         <v>25</v>
       </c>
       <c r="V31">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W31">
         <v>11.5</v>
       </c>
       <c r="X31">
+        <v>9.6</v>
+      </c>
+      <c r="Y31">
         <v>10</v>
-      </c>
-      <c r="Y31">
-        <v>11</v>
       </c>
       <c r="Z31">
         <v>12.5</v>
       </c>
       <c r="AA31">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC31">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD31">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE31">
         <v>12</v>
       </c>
       <c r="AF31">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG31">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH31">
+        <v>12.5</v>
+      </c>
+      <c r="AI31">
         <v>13</v>
       </c>
-      <c r="AI31">
-        <v>14</v>
-      </c>
       <c r="AJ31">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AK31">
         <v>70</v>
       </c>
       <c r="AL31">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN31">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AR31">
         <v>46</v>
@@ -7666,34 +7735,34 @@
         <v>220</v>
       </c>
       <c r="AT31">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AU31">
         <v>95</v>
       </c>
       <c r="AV31">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW31">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX31">
+        <v>80</v>
+      </c>
+      <c r="AY31">
+        <v>90</v>
+      </c>
+      <c r="AZ31">
         <v>60</v>
       </c>
-      <c r="AY31">
-        <v>95</v>
-      </c>
-      <c r="AZ31">
-        <v>48</v>
-      </c>
       <c r="BA31">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BB31">
         <v>5.1</v>
       </c>
       <c r="BC31">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="BD31">
         <v>200</v>
@@ -7717,13 +7786,13 @@
         <v>276</v>
       </c>
       <c r="BK31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BL31" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="BM31" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7764,10 +7833,10 @@
         <v>2.54</v>
       </c>
       <c r="M32">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O32">
         <v>1.65</v>
@@ -7782,19 +7851,19 @@
         <v>2.68</v>
       </c>
       <c r="S32">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T32">
         <v>19.5</v>
       </c>
       <c r="U32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V32">
         <v>15</v>
       </c>
       <c r="W32">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X32">
         <v>18</v>
@@ -7803,79 +7872,79 @@
         <v>19</v>
       </c>
       <c r="Z32">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA32">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB32">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC32">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD32">
         <v>8.800000000000001</v>
       </c>
       <c r="AE32">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AF32">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG32">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI32">
         <v>23</v>
       </c>
       <c r="AJ32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL32">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM32">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN32">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO32">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR32">
         <v>38</v>
       </c>
       <c r="AS32">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AT32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU32">
+        <v>26</v>
+      </c>
+      <c r="AV32">
         <v>29</v>
       </c>
-      <c r="AV32">
-        <v>28</v>
-      </c>
       <c r="AW32">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX32">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AY32">
         <v>60</v>
@@ -7884,7 +7953,7 @@
         <v>15.5</v>
       </c>
       <c r="BA32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB32">
         <v>12.5</v>
@@ -7914,13 +7983,13 @@
         <v>277</v>
       </c>
       <c r="BK32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BL32" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="BM32" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7946,7 +8015,7 @@
         <v>1.34</v>
       </c>
       <c r="H33">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I33">
         <v>10</v>
@@ -7958,25 +8027,25 @@
         <v>6.8</v>
       </c>
       <c r="L33">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N33">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="O33">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P33">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q33">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R33">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S33">
         <v>2.42</v>
@@ -7985,25 +8054,25 @@
         <v>34</v>
       </c>
       <c r="U33">
+        <v>38</v>
+      </c>
+      <c r="V33">
+        <v>44</v>
+      </c>
+      <c r="W33">
         <v>50</v>
-      </c>
-      <c r="V33">
-        <v>25</v>
-      </c>
-      <c r="W33">
-        <v>65</v>
       </c>
       <c r="X33">
         <v>70</v>
       </c>
       <c r="Y33">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z33">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AA33">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AB33">
         <v>12.5</v>
@@ -8012,46 +8081,46 @@
         <v>14.5</v>
       </c>
       <c r="AD33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF33">
+        <v>32</v>
+      </c>
+      <c r="AG33">
+        <v>36</v>
+      </c>
+      <c r="AH33">
+        <v>75</v>
+      </c>
+      <c r="AI33">
+        <v>120</v>
+      </c>
+      <c r="AJ33">
+        <v>10.5</v>
+      </c>
+      <c r="AK33">
+        <v>11</v>
+      </c>
+      <c r="AL33">
+        <v>10</v>
+      </c>
+      <c r="AM33">
+        <v>10.5</v>
+      </c>
+      <c r="AN33">
         <v>22</v>
       </c>
-      <c r="AG33">
-        <v>42</v>
-      </c>
-      <c r="AH33">
-        <v>38</v>
-      </c>
-      <c r="AI33">
-        <v>130</v>
-      </c>
-      <c r="AJ33">
-        <v>10</v>
-      </c>
-      <c r="AK33">
-        <v>11.5</v>
-      </c>
-      <c r="AL33">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM33">
-        <v>12</v>
-      </c>
-      <c r="AN33">
-        <v>20</v>
-      </c>
       <c r="AO33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AP33">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AQ33">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AR33">
         <v>11.5</v>
@@ -8063,34 +8132,34 @@
         <v>11.5</v>
       </c>
       <c r="AU33">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AV33">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW33">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AX33">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AY33">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AZ33">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="BA33">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="BB33">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="BC33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BD33">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="BE33">
         <v>980</v>
@@ -8111,13 +8180,13 @@
         <v>278</v>
       </c>
       <c r="BK33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BL33" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="BM33" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8155,10 +8224,10 @@
         <v>3.75</v>
       </c>
       <c r="L34">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="M34">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="N34">
         <v>1.75</v>
@@ -8182,112 +8251,112 @@
         <v>15.5</v>
       </c>
       <c r="U34">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="V34">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W34">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="X34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y34">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z34">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AA34">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB34">
         <v>11.5</v>
       </c>
       <c r="AC34">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD34">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE34">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AF34">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG34">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH34">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ34">
         <v>15</v>
       </c>
       <c r="AK34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL34">
         <v>10.5</v>
       </c>
       <c r="AM34">
+        <v>11.5</v>
+      </c>
+      <c r="AN34">
+        <v>14</v>
+      </c>
+      <c r="AO34">
+        <v>15.5</v>
+      </c>
+      <c r="AP34">
+        <v>34</v>
+      </c>
+      <c r="AQ34">
+        <v>40</v>
+      </c>
+      <c r="AR34">
+        <v>29</v>
+      </c>
+      <c r="AS34">
+        <v>32</v>
+      </c>
+      <c r="AT34">
+        <v>21</v>
+      </c>
+      <c r="AU34">
+        <v>23</v>
+      </c>
+      <c r="AV34">
+        <v>29</v>
+      </c>
+      <c r="AW34">
+        <v>32</v>
+      </c>
+      <c r="AX34">
+        <v>60</v>
+      </c>
+      <c r="AY34">
+        <v>75</v>
+      </c>
+      <c r="AZ34">
         <v>13</v>
       </c>
-      <c r="AN34">
-        <v>13.5</v>
-      </c>
-      <c r="AO34">
-        <v>17</v>
-      </c>
-      <c r="AP34">
-        <v>30</v>
-      </c>
-      <c r="AQ34">
-        <v>44</v>
-      </c>
-      <c r="AR34">
-        <v>27</v>
-      </c>
-      <c r="AS34">
-        <v>36</v>
-      </c>
-      <c r="AT34">
+      <c r="BA34">
+        <v>15.5</v>
+      </c>
+      <c r="BB34">
         <v>20</v>
       </c>
-      <c r="AU34">
-        <v>26</v>
-      </c>
-      <c r="AV34">
+      <c r="BC34">
         <v>25</v>
       </c>
-      <c r="AW34">
-        <v>38</v>
-      </c>
-      <c r="AX34">
-        <v>46</v>
-      </c>
-      <c r="AY34">
-        <v>80</v>
-      </c>
-      <c r="AZ34">
-        <v>11.5</v>
-      </c>
-      <c r="BA34">
-        <v>17</v>
-      </c>
-      <c r="BB34">
-        <v>17</v>
-      </c>
-      <c r="BC34">
-        <v>27</v>
-      </c>
       <c r="BD34">
-        <v>6.8</v>
+        <v>18</v>
       </c>
       <c r="BE34">
         <v>980</v>
@@ -8308,13 +8377,13 @@
         <v>279</v>
       </c>
       <c r="BK34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="BL34" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="BM34" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8334,37 +8403,37 @@
         <v>184</v>
       </c>
       <c r="F35">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G35">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H35">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I35">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J35">
         <v>3.5</v>
       </c>
       <c r="K35">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L35">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="M35">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N35">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O35">
         <v>2.18</v>
       </c>
       <c r="P35">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q35">
         <v>1.95</v>
@@ -8379,112 +8448,112 @@
         <v>11.5</v>
       </c>
       <c r="U35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V35">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W35">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="X35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z35">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA35">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB35">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC35">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD35">
         <v>7.2</v>
       </c>
       <c r="AE35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF35">
         <v>13</v>
       </c>
       <c r="AG35">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH35">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI35">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ35">
+        <v>13</v>
+      </c>
+      <c r="AK35">
+        <v>14.5</v>
+      </c>
+      <c r="AL35">
+        <v>10.5</v>
+      </c>
+      <c r="AM35">
         <v>11.5</v>
       </c>
-      <c r="AK35">
-        <v>15.5</v>
-      </c>
-      <c r="AL35">
-        <v>10</v>
-      </c>
-      <c r="AM35">
-        <v>12.5</v>
-      </c>
       <c r="AN35">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO35">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AP35">
         <v>29</v>
       </c>
       <c r="AQ35">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR35">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AS35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AT35">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU35">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV35">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AW35">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AX35">
         <v>40</v>
       </c>
       <c r="AY35">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AZ35">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="BA35">
         <v>22</v>
       </c>
       <c r="BB35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BC35">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BD35">
-        <v>6.8</v>
+        <v>14</v>
       </c>
       <c r="BE35">
         <v>1000</v>
@@ -8505,13 +8574,13 @@
         <v>280</v>
       </c>
       <c r="BK35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="BL35" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="BM35" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8558,133 +8627,133 @@
         <v>1.42</v>
       </c>
       <c r="O36">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AW36">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AX36">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ36">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BA36">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BB36">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BC36">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="BD36">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="BE36">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF36" t="s">
         <v>233</v>
@@ -8702,13 +8771,13 @@
         <v>281</v>
       </c>
       <c r="BK36" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL36">
-        <v>0</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>377</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8728,184 +8797,184 @@
         <v>186</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L37">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="M37">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="N37">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="O37">
-        <v>6.4</v>
+        <v>2.36</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF37" t="s">
         <v>234</v>
       </c>
       <c r="BG37">
-        <v>0</v>
+        <v>58252361</v>
       </c>
       <c r="BH37">
-        <v>0</v>
+        <v>6563315</v>
       </c>
       <c r="BI37">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>282</v>
       </c>
       <c r="BK37" t="s">
-        <v>329</v>
-      </c>
-      <c r="BL37">
-        <v>0</v>
-      </c>
-      <c r="BM37">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>378</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8925,19 +8994,19 @@
         <v>187</v>
       </c>
       <c r="F38">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="G38">
         <v>240</v>
       </c>
       <c r="H38">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="I38">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="J38">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="K38">
         <v>12</v>
@@ -9093,16 +9162,16 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BK38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BL38" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="BM38" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9134,7 +9203,7 @@
         <v>980</v>
       </c>
       <c r="J39">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="K39">
         <v>940</v>
@@ -9290,16 +9359,16 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BK39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BL39" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="BM39" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9322,10 +9391,10 @@
         <v>1.51</v>
       </c>
       <c r="G40">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="I40">
         <v>1000</v>
@@ -9487,16 +9556,16 @@
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BK40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="BL40" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="BM40" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9522,7 +9591,7 @@
         <v>1.5</v>
       </c>
       <c r="H41">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I41">
         <v>980</v>
@@ -9684,16 +9753,16 @@
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BK41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BL41" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="BM41" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9725,7 +9794,7 @@
         <v>980</v>
       </c>
       <c r="J42">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="K42">
         <v>980</v>
@@ -9881,16 +9950,16 @@
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BK42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BL42" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="BM42" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9913,22 +9982,22 @@
         <v>1.04</v>
       </c>
       <c r="G43">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="H43">
         <v>1.04</v>
       </c>
       <c r="I43">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="J43">
         <v>1.51</v>
       </c>
       <c r="K43">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L43">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M43">
         <v>1000</v>
@@ -9937,7 +10006,7 @@
         <v>1.01</v>
       </c>
       <c r="O43">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -10078,10 +10147,10 @@
         <v>58805</v>
       </c>
       <c r="BJ43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BK43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BL43">
         <v>0</v>
@@ -10116,19 +10185,19 @@
         <v>1.1</v>
       </c>
       <c r="I44">
-        <v>210</v>
+        <v>990</v>
       </c>
       <c r="J44">
         <v>1.78</v>
       </c>
       <c r="K44">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L44">
         <v>1.34</v>
       </c>
       <c r="M44">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="N44">
         <v>1.01</v>
@@ -10257,7 +10326,7 @@
         <v>1000</v>
       </c>
       <c r="BD44">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE44">
         <v>1000</v>
@@ -10275,16 +10344,16 @@
         <v>58805</v>
       </c>
       <c r="BJ44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BK44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BL44" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="BM44" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -10310,10 +10379,10 @@
         <v>7.8</v>
       </c>
       <c r="H45">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I45">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J45">
         <v>2.98</v>
@@ -10322,7 +10391,7 @@
         <v>4.5</v>
       </c>
       <c r="L45">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M45">
         <v>1.72</v>
@@ -10331,7 +10400,7 @@
         <v>2.38</v>
       </c>
       <c r="O45">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="P45">
         <v>1.01</v>
@@ -10472,16 +10541,16 @@
         <v>58805</v>
       </c>
       <c r="BJ45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK45" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BL45" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="BM45" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10501,25 +10570,25 @@
         <v>195</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="G46">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="H46">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I46">
         <v>3.35</v>
       </c>
       <c r="J46">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K46">
         <v>4.9</v>
       </c>
       <c r="L46">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M46">
         <v>26</v>
@@ -10528,7 +10597,7 @@
         <v>1.04</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="P46">
         <v>1.01</v>
@@ -10669,16 +10738,16 @@
         <v>58805</v>
       </c>
       <c r="BJ46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BK46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BL46" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="BM46" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -10698,25 +10767,25 @@
         <v>196</v>
       </c>
       <c r="F47">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G47">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H47">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I47">
         <v>3.25</v>
       </c>
       <c r="J47">
-        <v>1.12</v>
+        <v>1.61</v>
       </c>
       <c r="K47">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L47">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M47">
         <v>21</v>
@@ -10725,7 +10794,7 @@
         <v>1.22</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="P47">
         <v>1.01</v>
@@ -10866,16 +10935,16 @@
         <v>58805</v>
       </c>
       <c r="BJ47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BK47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BL47" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="BM47" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -10895,25 +10964,25 @@
         <v>197</v>
       </c>
       <c r="F48">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="G48">
         <v>10</v>
       </c>
       <c r="H48">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="I48">
-        <v>2.62</v>
+        <v>980</v>
       </c>
       <c r="J48">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="K48">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M48">
         <v>980</v>
@@ -10922,7 +10991,7 @@
         <v>1.01</v>
       </c>
       <c r="O48">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="P48">
         <v>1.01</v>
@@ -11063,16 +11132,16 @@
         <v>58805</v>
       </c>
       <c r="BJ48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BK48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BL48" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="BM48" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -11110,7 +11179,7 @@
         <v>190</v>
       </c>
       <c r="L49">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M49">
         <v>26</v>
@@ -11119,7 +11188,7 @@
         <v>1.04</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="P49">
         <v>1.01</v>
@@ -11260,16 +11329,16 @@
         <v>58805</v>
       </c>
       <c r="BJ49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BK49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BL49" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="BM49" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="237">
   <si>
     <t>League</t>
   </si>
@@ -637,111 +637,6 @@
     <t>Club Sportivo Ameliano</t>
   </si>
   <si>
-    <t>33211405</t>
-  </si>
-  <si>
-    <t>33194894</t>
-  </si>
-  <si>
-    <t>33211406</t>
-  </si>
-  <si>
-    <t>33192988</t>
-  </si>
-  <si>
-    <t>33193026</t>
-  </si>
-  <si>
-    <t>33211744</t>
-  </si>
-  <si>
-    <t>33202780</t>
-  </si>
-  <si>
-    <t>33211588</t>
-  </si>
-  <si>
-    <t>33212281</t>
-  </si>
-  <si>
-    <t>33212419</t>
-  </si>
-  <si>
-    <t>33194889</t>
-  </si>
-  <si>
-    <t>33209974</t>
-  </si>
-  <si>
-    <t>33212355</t>
-  </si>
-  <si>
-    <t>33215933</t>
-  </si>
-  <si>
-    <t>33218007</t>
-  </si>
-  <si>
-    <t>33209872</t>
-  </si>
-  <si>
-    <t>33211607</t>
-  </si>
-  <si>
-    <t>33207533</t>
-  </si>
-  <si>
-    <t>33212433</t>
-  </si>
-  <si>
-    <t>33201707</t>
-  </si>
-  <si>
-    <t>33190644</t>
-  </si>
-  <si>
-    <t>33208810</t>
-  </si>
-  <si>
-    <t>33192982</t>
-  </si>
-  <si>
-    <t>33190394</t>
-  </si>
-  <si>
-    <t>33190499</t>
-  </si>
-  <si>
-    <t>33190976</t>
-  </si>
-  <si>
-    <t>33193009</t>
-  </si>
-  <si>
-    <t>33193008</t>
-  </si>
-  <si>
-    <t>33214089</t>
-  </si>
-  <si>
-    <t>33188041</t>
-  </si>
-  <si>
-    <t>33187100</t>
-  </si>
-  <si>
-    <t>33185984</t>
-  </si>
-  <si>
-    <t>33195551</t>
-  </si>
-  <si>
-    <t>33195548</t>
-  </si>
-  <si>
-    <t>33191374</t>
-  </si>
-  <si>
     <t>33205495</t>
   </si>
   <si>
@@ -760,111 +655,6 @@
     <t>33195589</t>
   </si>
   <si>
-    <t>1.227919320</t>
-  </si>
-  <si>
-    <t>1.227646097</t>
-  </si>
-  <si>
-    <t>1.227919104</t>
-  </si>
-  <si>
-    <t>1.227609861</t>
-  </si>
-  <si>
-    <t>1.227616086</t>
-  </si>
-  <si>
-    <t>1.227928810</t>
-  </si>
-  <si>
-    <t>1.227786404</t>
-  </si>
-  <si>
-    <t>1.227925565</t>
-  </si>
-  <si>
-    <t>1.227942450</t>
-  </si>
-  <si>
-    <t>1.227942337</t>
-  </si>
-  <si>
-    <t>1.227646187</t>
-  </si>
-  <si>
-    <t>1.227902519</t>
-  </si>
-  <si>
-    <t>1.227945899</t>
-  </si>
-  <si>
-    <t>1.228004704</t>
-  </si>
-  <si>
-    <t>1.228038371</t>
-  </si>
-  <si>
-    <t>1.227894826</t>
-  </si>
-  <si>
-    <t>1.227927388</t>
-  </si>
-  <si>
-    <t>1.227854624</t>
-  </si>
-  <si>
-    <t>1.227943074</t>
-  </si>
-  <si>
-    <t>1.227762070</t>
-  </si>
-  <si>
-    <t>1.227567777</t>
-  </si>
-  <si>
-    <t>1.227884103</t>
-  </si>
-  <si>
-    <t>1.227617328</t>
-  </si>
-  <si>
-    <t>1.227568200</t>
-  </si>
-  <si>
-    <t>1.227568059</t>
-  </si>
-  <si>
-    <t>1.227567918</t>
-  </si>
-  <si>
-    <t>1.227616806</t>
-  </si>
-  <si>
-    <t>1.227615168</t>
-  </si>
-  <si>
-    <t>1.227967132</t>
-  </si>
-  <si>
-    <t>1.227519220</t>
-  </si>
-  <si>
-    <t>1.227507304</t>
-  </si>
-  <si>
-    <t>1.227489619</t>
-  </si>
-  <si>
-    <t>1.227670675</t>
-  </si>
-  <si>
-    <t>1.227670797</t>
-  </si>
-  <si>
-    <t>1.227583526</t>
-  </si>
-  <si>
     <t>1.227829350</t>
   </si>
   <si>
@@ -883,111 +673,6 @@
     <t>1.227671039</t>
   </si>
   <si>
-    <t>1.227919365</t>
-  </si>
-  <si>
-    <t>1.227646142</t>
-  </si>
-  <si>
-    <t>1.227919149</t>
-  </si>
-  <si>
-    <t>1.227609906</t>
-  </si>
-  <si>
-    <t>1.227616070</t>
-  </si>
-  <si>
-    <t>1.227928820</t>
-  </si>
-  <si>
-    <t>1.227786449</t>
-  </si>
-  <si>
-    <t>1.227925610</t>
-  </si>
-  <si>
-    <t>1.227942460</t>
-  </si>
-  <si>
-    <t>1.227942347</t>
-  </si>
-  <si>
-    <t>1.227646232</t>
-  </si>
-  <si>
-    <t>1.227902564</t>
-  </si>
-  <si>
-    <t>1.227945944</t>
-  </si>
-  <si>
-    <t>1.228004749</t>
-  </si>
-  <si>
-    <t>1.228038416</t>
-  </si>
-  <si>
-    <t>1.227894871</t>
-  </si>
-  <si>
-    <t>1.227927398</t>
-  </si>
-  <si>
-    <t>1.227854670</t>
-  </si>
-  <si>
-    <t>1.227943084</t>
-  </si>
-  <si>
-    <t>1.227762081</t>
-  </si>
-  <si>
-    <t>1.227567716</t>
-  </si>
-  <si>
-    <t>1.227884148</t>
-  </si>
-  <si>
-    <t>1.227617299</t>
-  </si>
-  <si>
-    <t>1.227568139</t>
-  </si>
-  <si>
-    <t>1.227567998</t>
-  </si>
-  <si>
-    <t>1.227567857</t>
-  </si>
-  <si>
-    <t>1.227616790</t>
-  </si>
-  <si>
-    <t>1.227615178</t>
-  </si>
-  <si>
-    <t>1.227967177</t>
-  </si>
-  <si>
-    <t>1.227519230</t>
-  </si>
-  <si>
-    <t>1.227507314</t>
-  </si>
-  <si>
-    <t>1.227489629</t>
-  </si>
-  <si>
-    <t>1.227670659</t>
-  </si>
-  <si>
-    <t>1.227670781</t>
-  </si>
-  <si>
-    <t>1.227583571</t>
-  </si>
-  <si>
     <t>1.227829360</t>
   </si>
   <si>
@@ -1006,111 +691,6 @@
     <t>1.227671023</t>
   </si>
   <si>
-    <t>1.227919404</t>
-  </si>
-  <si>
-    <t>1.227646181</t>
-  </si>
-  <si>
-    <t>1.227919188</t>
-  </si>
-  <si>
-    <t>1.227609945</t>
-  </si>
-  <si>
-    <t>1.227616085</t>
-  </si>
-  <si>
-    <t>1.227928809</t>
-  </si>
-  <si>
-    <t>1.227786488</t>
-  </si>
-  <si>
-    <t>1.227925650</t>
-  </si>
-  <si>
-    <t>1.227942449</t>
-  </si>
-  <si>
-    <t>1.227942336</t>
-  </si>
-  <si>
-    <t>1.227646271</t>
-  </si>
-  <si>
-    <t>1.227902603</t>
-  </si>
-  <si>
-    <t>1.227945983</t>
-  </si>
-  <si>
-    <t>1.228004788</t>
-  </si>
-  <si>
-    <t>1.228038455</t>
-  </si>
-  <si>
-    <t>1.227894910</t>
-  </si>
-  <si>
-    <t>1.227927387</t>
-  </si>
-  <si>
-    <t>1.227854709</t>
-  </si>
-  <si>
-    <t>1.227943073</t>
-  </si>
-  <si>
-    <t>1.227762068</t>
-  </si>
-  <si>
-    <t>1.227567776</t>
-  </si>
-  <si>
-    <t>1.227884187</t>
-  </si>
-  <si>
-    <t>1.227617327</t>
-  </si>
-  <si>
-    <t>1.227568199</t>
-  </si>
-  <si>
-    <t>1.227568058</t>
-  </si>
-  <si>
-    <t>1.227567917</t>
-  </si>
-  <si>
-    <t>1.227616805</t>
-  </si>
-  <si>
-    <t>1.227615167</t>
-  </si>
-  <si>
-    <t>1.227967216</t>
-  </si>
-  <si>
-    <t>1.227519219</t>
-  </si>
-  <si>
-    <t>1.227507303</t>
-  </si>
-  <si>
-    <t>1.227489618</t>
-  </si>
-  <si>
-    <t>1.227670674</t>
-  </si>
-  <si>
-    <t>1.227670796</t>
-  </si>
-  <si>
-    <t>1.227583610</t>
-  </si>
-  <si>
     <t>1.227829349</t>
   </si>
   <si>
@@ -1127,111 +707,6 @@
   </si>
   <si>
     <t>1.227671038</t>
-  </si>
-  <si>
-    <t>1.227919329</t>
-  </si>
-  <si>
-    <t>1.227646106</t>
-  </si>
-  <si>
-    <t>1.227919113</t>
-  </si>
-  <si>
-    <t>1.227609870</t>
-  </si>
-  <si>
-    <t>1.227616095</t>
-  </si>
-  <si>
-    <t>1.227928819</t>
-  </si>
-  <si>
-    <t>1.227786413</t>
-  </si>
-  <si>
-    <t>1.227925574</t>
-  </si>
-  <si>
-    <t>1.227942459</t>
-  </si>
-  <si>
-    <t>1.227942346</t>
-  </si>
-  <si>
-    <t>1.227646196</t>
-  </si>
-  <si>
-    <t>1.227902528</t>
-  </si>
-  <si>
-    <t>1.227945908</t>
-  </si>
-  <si>
-    <t>1.228004713</t>
-  </si>
-  <si>
-    <t>1.228038380</t>
-  </si>
-  <si>
-    <t>1.227894835</t>
-  </si>
-  <si>
-    <t>1.227927397</t>
-  </si>
-  <si>
-    <t>1.227854634</t>
-  </si>
-  <si>
-    <t>1.227943083</t>
-  </si>
-  <si>
-    <t>1.227762080</t>
-  </si>
-  <si>
-    <t>1.227567787</t>
-  </si>
-  <si>
-    <t>1.227884112</t>
-  </si>
-  <si>
-    <t>1.227617346</t>
-  </si>
-  <si>
-    <t>1.227568210</t>
-  </si>
-  <si>
-    <t>1.227568069</t>
-  </si>
-  <si>
-    <t>1.227567928</t>
-  </si>
-  <si>
-    <t>1.227616815</t>
-  </si>
-  <si>
-    <t>1.227615177</t>
-  </si>
-  <si>
-    <t>1.227967141</t>
-  </si>
-  <si>
-    <t>1.227519229</t>
-  </si>
-  <si>
-    <t>1.227507313</t>
-  </si>
-  <si>
-    <t>1.227489628</t>
-  </si>
-  <si>
-    <t>1.227670684</t>
-  </si>
-  <si>
-    <t>1.227670806</t>
-  </si>
-  <si>
-    <t>1.227583535</t>
   </si>
   <si>
     <t>1.227829359</t>
@@ -3952,8 +3427,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>207</v>
+      <c r="BF12">
+        <v>33211405</v>
       </c>
       <c r="BG12">
         <v>345648</v>
@@ -3964,17 +3439,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>248</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>371</v>
+      <c r="BJ12">
+        <v>1.22791932</v>
+      </c>
+      <c r="BK12">
+        <v>1.227919365</v>
+      </c>
+      <c r="BL12">
+        <v>1.227919404</v>
+      </c>
+      <c r="BM12">
+        <v>1.227919329</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4149,8 +3624,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>208</v>
+      <c r="BF13">
+        <v>33194894</v>
       </c>
       <c r="BG13">
         <v>244704</v>
@@ -4161,17 +3636,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>372</v>
+      <c r="BJ13">
+        <v>1.227646097</v>
+      </c>
+      <c r="BK13">
+        <v>1.227646142</v>
+      </c>
+      <c r="BL13">
+        <v>1.227646181</v>
+      </c>
+      <c r="BM13">
+        <v>1.227646106</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4346,8 +3821,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>209</v>
+      <c r="BF14">
+        <v>33211406</v>
       </c>
       <c r="BG14">
         <v>4902204</v>
@@ -4358,17 +3833,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>332</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>373</v>
+      <c r="BJ14">
+        <v>1.227919104</v>
+      </c>
+      <c r="BK14">
+        <v>1.227919149</v>
+      </c>
+      <c r="BL14">
+        <v>1.227919188</v>
+      </c>
+      <c r="BM14">
+        <v>1.227919113</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4543,8 +4018,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>210</v>
+      <c r="BF15">
+        <v>33192988</v>
       </c>
       <c r="BG15">
         <v>7928242</v>
@@ -4555,17 +4030,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>374</v>
+      <c r="BJ15">
+        <v>1.227609861</v>
+      </c>
+      <c r="BK15">
+        <v>1.227609906</v>
+      </c>
+      <c r="BL15">
+        <v>1.227609945</v>
+      </c>
+      <c r="BM15">
+        <v>1.22760987</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4740,8 +4215,8 @@
       <c r="BE16">
         <v>980</v>
       </c>
-      <c r="BF16" t="s">
-        <v>211</v>
+      <c r="BF16">
+        <v>33193026</v>
       </c>
       <c r="BG16">
         <v>44794</v>
@@ -4752,17 +4227,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>252</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>293</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>375</v>
+      <c r="BJ16">
+        <v>1.227616086</v>
+      </c>
+      <c r="BK16">
+        <v>1.22761607</v>
+      </c>
+      <c r="BL16">
+        <v>1.227616085</v>
+      </c>
+      <c r="BM16">
+        <v>1.227616095</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4937,8 +4412,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>212</v>
+      <c r="BF17">
+        <v>33211744</v>
       </c>
       <c r="BG17">
         <v>168731</v>
@@ -4949,17 +4424,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>335</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>376</v>
+      <c r="BJ17">
+        <v>1.22792881</v>
+      </c>
+      <c r="BK17">
+        <v>1.22792882</v>
+      </c>
+      <c r="BL17">
+        <v>1.227928809</v>
+      </c>
+      <c r="BM17">
+        <v>1.227928819</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -5134,8 +4609,8 @@
       <c r="BE18">
         <v>1000</v>
       </c>
-      <c r="BF18" t="s">
-        <v>213</v>
+      <c r="BF18">
+        <v>33202780</v>
       </c>
       <c r="BG18">
         <v>19918253</v>
@@ -5146,17 +4621,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>254</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>295</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>336</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>377</v>
+      <c r="BJ18">
+        <v>1.227786404</v>
+      </c>
+      <c r="BK18">
+        <v>1.227786449</v>
+      </c>
+      <c r="BL18">
+        <v>1.227786488</v>
+      </c>
+      <c r="BM18">
+        <v>1.227786413</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5331,8 +4806,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>214</v>
+      <c r="BF19">
+        <v>33211588</v>
       </c>
       <c r="BG19">
         <v>110687</v>
@@ -5343,17 +4818,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>296</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>337</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>378</v>
+      <c r="BJ19">
+        <v>1.227925565</v>
+      </c>
+      <c r="BK19">
+        <v>1.22792561</v>
+      </c>
+      <c r="BL19">
+        <v>1.22792565</v>
+      </c>
+      <c r="BM19">
+        <v>1.227925574</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5528,8 +5003,8 @@
       <c r="BE20">
         <v>980</v>
       </c>
-      <c r="BF20" t="s">
-        <v>215</v>
+      <c r="BF20">
+        <v>33212281</v>
       </c>
       <c r="BG20">
         <v>30689</v>
@@ -5540,17 +5015,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>297</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>379</v>
+      <c r="BJ20">
+        <v>1.22794245</v>
+      </c>
+      <c r="BK20">
+        <v>1.22794246</v>
+      </c>
+      <c r="BL20">
+        <v>1.227942449</v>
+      </c>
+      <c r="BM20">
+        <v>1.227942459</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5725,8 +5200,8 @@
       <c r="BE21">
         <v>980</v>
       </c>
-      <c r="BF21" t="s">
-        <v>216</v>
+      <c r="BF21">
+        <v>33212419</v>
       </c>
       <c r="BG21">
         <v>151472</v>
@@ -5737,17 +5212,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>298</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>339</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>380</v>
+      <c r="BJ21">
+        <v>1.227942337</v>
+      </c>
+      <c r="BK21">
+        <v>1.227942347</v>
+      </c>
+      <c r="BL21">
+        <v>1.227942336</v>
+      </c>
+      <c r="BM21">
+        <v>1.227942346</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5922,8 +5397,8 @@
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>217</v>
+      <c r="BF22">
+        <v>33194889</v>
       </c>
       <c r="BG22">
         <v>10758</v>
@@ -5934,17 +5409,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>299</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>340</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>381</v>
+      <c r="BJ22">
+        <v>1.227646187</v>
+      </c>
+      <c r="BK22">
+        <v>1.227646232</v>
+      </c>
+      <c r="BL22">
+        <v>1.227646271</v>
+      </c>
+      <c r="BM22">
+        <v>1.227646196</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -6119,8 +5594,8 @@
       <c r="BE23">
         <v>980</v>
       </c>
-      <c r="BF23" t="s">
-        <v>218</v>
+      <c r="BF23">
+        <v>33209974</v>
       </c>
       <c r="BG23">
         <v>2597350</v>
@@ -6131,17 +5606,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>259</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>300</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>382</v>
+      <c r="BJ23">
+        <v>1.227902519</v>
+      </c>
+      <c r="BK23">
+        <v>1.227902564</v>
+      </c>
+      <c r="BL23">
+        <v>1.227902603</v>
+      </c>
+      <c r="BM23">
+        <v>1.227902528</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6316,8 +5791,8 @@
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>219</v>
+      <c r="BF24">
+        <v>33212355</v>
       </c>
       <c r="BG24">
         <v>2437395</v>
@@ -6328,17 +5803,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>342</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>383</v>
+      <c r="BJ24">
+        <v>1.227945899</v>
+      </c>
+      <c r="BK24">
+        <v>1.227945944</v>
+      </c>
+      <c r="BL24">
+        <v>1.227945983</v>
+      </c>
+      <c r="BM24">
+        <v>1.227945908</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6513,8 +5988,8 @@
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>220</v>
+      <c r="BF25">
+        <v>33215933</v>
       </c>
       <c r="BG25">
         <v>5347408</v>
@@ -6525,17 +6000,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>261</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>302</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>343</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>384</v>
+      <c r="BJ25">
+        <v>1.228004704</v>
+      </c>
+      <c r="BK25">
+        <v>1.228004749</v>
+      </c>
+      <c r="BL25">
+        <v>1.228004788</v>
+      </c>
+      <c r="BM25">
+        <v>1.228004713</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6710,8 +6185,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>221</v>
+      <c r="BF26">
+        <v>33218007</v>
       </c>
       <c r="BG26">
         <v>4807138</v>
@@ -6722,17 +6197,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>262</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>303</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>344</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>385</v>
+      <c r="BJ26">
+        <v>1.228038371</v>
+      </c>
+      <c r="BK26">
+        <v>1.228038416</v>
+      </c>
+      <c r="BL26">
+        <v>1.228038455</v>
+      </c>
+      <c r="BM26">
+        <v>1.22803838</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6907,8 +6382,8 @@
       <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="BF27" t="s">
-        <v>222</v>
+      <c r="BF27">
+        <v>33209872</v>
       </c>
       <c r="BG27">
         <v>3143305</v>
@@ -6919,17 +6394,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>263</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>345</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>386</v>
+      <c r="BJ27">
+        <v>1.227894826</v>
+      </c>
+      <c r="BK27">
+        <v>1.227894871</v>
+      </c>
+      <c r="BL27">
+        <v>1.22789491</v>
+      </c>
+      <c r="BM27">
+        <v>1.227894835</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -7104,8 +6579,8 @@
       <c r="BE28">
         <v>980</v>
       </c>
-      <c r="BF28" t="s">
-        <v>223</v>
+      <c r="BF28">
+        <v>33211607</v>
       </c>
       <c r="BG28">
         <v>58163</v>
@@ -7116,17 +6591,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>346</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>387</v>
+      <c r="BJ28">
+        <v>1.227927388</v>
+      </c>
+      <c r="BK28">
+        <v>1.227927398</v>
+      </c>
+      <c r="BL28">
+        <v>1.227927387</v>
+      </c>
+      <c r="BM28">
+        <v>1.227927397</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7301,8 +6776,8 @@
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>224</v>
+      <c r="BF29">
+        <v>33207533</v>
       </c>
       <c r="BG29">
         <v>65350</v>
@@ -7313,17 +6788,17 @@
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>347</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>388</v>
+      <c r="BJ29">
+        <v>1.227854624</v>
+      </c>
+      <c r="BK29">
+        <v>1.22785467</v>
+      </c>
+      <c r="BL29">
+        <v>1.227854709</v>
+      </c>
+      <c r="BM29">
+        <v>1.227854634</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7498,8 +6973,8 @@
       <c r="BE30">
         <v>980</v>
       </c>
-      <c r="BF30" t="s">
-        <v>225</v>
+      <c r="BF30">
+        <v>33212433</v>
       </c>
       <c r="BG30">
         <v>10762</v>
@@ -7510,17 +6985,17 @@
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>348</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>389</v>
+      <c r="BJ30">
+        <v>1.227943074</v>
+      </c>
+      <c r="BK30">
+        <v>1.227943084</v>
+      </c>
+      <c r="BL30">
+        <v>1.227943073</v>
+      </c>
+      <c r="BM30">
+        <v>1.227943083</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7695,8 +7170,8 @@
       <c r="BE31">
         <v>850</v>
       </c>
-      <c r="BF31" t="s">
-        <v>226</v>
+      <c r="BF31">
+        <v>33201707</v>
       </c>
       <c r="BG31">
         <v>48043</v>
@@ -7707,17 +7182,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>308</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>349</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>390</v>
+      <c r="BJ31">
+        <v>1.22776207</v>
+      </c>
+      <c r="BK31">
+        <v>1.227762081</v>
+      </c>
+      <c r="BL31">
+        <v>1.227762068</v>
+      </c>
+      <c r="BM31">
+        <v>1.22776208</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7892,8 +7367,8 @@
       <c r="BE32">
         <v>430</v>
       </c>
-      <c r="BF32" t="s">
-        <v>227</v>
+      <c r="BF32">
+        <v>33190644</v>
       </c>
       <c r="BG32">
         <v>48044</v>
@@ -7904,17 +7379,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>309</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>350</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>391</v>
+      <c r="BJ32">
+        <v>1.227567777</v>
+      </c>
+      <c r="BK32">
+        <v>1.227567716</v>
+      </c>
+      <c r="BL32">
+        <v>1.227567776</v>
+      </c>
+      <c r="BM32">
+        <v>1.227567787</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -8089,8 +7564,8 @@
       <c r="BE33">
         <v>1000</v>
       </c>
-      <c r="BF33" t="s">
-        <v>228</v>
+      <c r="BF33">
+        <v>33208810</v>
       </c>
       <c r="BG33">
         <v>8916863</v>
@@ -8101,17 +7576,17 @@
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>310</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>351</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>392</v>
+      <c r="BJ33">
+        <v>1.227884103</v>
+      </c>
+      <c r="BK33">
+        <v>1.227884148</v>
+      </c>
+      <c r="BL33">
+        <v>1.227884187</v>
+      </c>
+      <c r="BM33">
+        <v>1.227884112</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8286,8 +7761,8 @@
       <c r="BE34">
         <v>1000</v>
       </c>
-      <c r="BF34" t="s">
-        <v>229</v>
+      <c r="BF34">
+        <v>33192982</v>
       </c>
       <c r="BG34">
         <v>52457652</v>
@@ -8298,17 +7773,17 @@
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>311</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>352</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>393</v>
+      <c r="BJ34">
+        <v>1.227617328</v>
+      </c>
+      <c r="BK34">
+        <v>1.227617299</v>
+      </c>
+      <c r="BL34">
+        <v>1.227617327</v>
+      </c>
+      <c r="BM34">
+        <v>1.227617346</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8483,8 +7958,8 @@
       <c r="BE35">
         <v>1000</v>
       </c>
-      <c r="BF35" t="s">
-        <v>230</v>
+      <c r="BF35">
+        <v>33190394</v>
       </c>
       <c r="BG35">
         <v>56343</v>
@@ -8495,17 +7970,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>312</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>353</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>394</v>
+      <c r="BJ35">
+        <v>1.2275682</v>
+      </c>
+      <c r="BK35">
+        <v>1.227568139</v>
+      </c>
+      <c r="BL35">
+        <v>1.227568199</v>
+      </c>
+      <c r="BM35">
+        <v>1.22756821</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8680,8 +8155,8 @@
       <c r="BE36">
         <v>350</v>
       </c>
-      <c r="BF36" t="s">
-        <v>231</v>
+      <c r="BF36">
+        <v>33190499</v>
       </c>
       <c r="BG36">
         <v>62523</v>
@@ -8692,17 +8167,17 @@
       <c r="BI36">
         <v>58805</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>313</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>354</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>395</v>
+      <c r="BJ36">
+        <v>1.227568059</v>
+      </c>
+      <c r="BK36">
+        <v>1.227567998</v>
+      </c>
+      <c r="BL36">
+        <v>1.227568058</v>
+      </c>
+      <c r="BM36">
+        <v>1.227568069</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8877,8 +8352,8 @@
       <c r="BE37">
         <v>410</v>
       </c>
-      <c r="BF37" t="s">
-        <v>232</v>
+      <c r="BF37">
+        <v>33190976</v>
       </c>
       <c r="BG37">
         <v>48351</v>
@@ -8889,17 +8364,17 @@
       <c r="BI37">
         <v>58805</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>314</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>355</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>396</v>
+      <c r="BJ37">
+        <v>1.227567918</v>
+      </c>
+      <c r="BK37">
+        <v>1.227567857</v>
+      </c>
+      <c r="BL37">
+        <v>1.227567917</v>
+      </c>
+      <c r="BM37">
+        <v>1.227567928</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -9074,8 +8549,8 @@
       <c r="BE38">
         <v>980</v>
       </c>
-      <c r="BF38" t="s">
-        <v>233</v>
+      <c r="BF38">
+        <v>33193009</v>
       </c>
       <c r="BG38">
         <v>361706</v>
@@ -9086,17 +8561,17 @@
       <c r="BI38">
         <v>58805</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>274</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>356</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>397</v>
+      <c r="BJ38">
+        <v>1.227616806</v>
+      </c>
+      <c r="BK38">
+        <v>1.22761679</v>
+      </c>
+      <c r="BL38">
+        <v>1.227616805</v>
+      </c>
+      <c r="BM38">
+        <v>1.227616815</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9271,8 +8746,8 @@
       <c r="BE39">
         <v>980</v>
       </c>
-      <c r="BF39" t="s">
-        <v>234</v>
+      <c r="BF39">
+        <v>33193008</v>
       </c>
       <c r="BG39">
         <v>52494689</v>
@@ -9283,17 +8758,17 @@
       <c r="BI39">
         <v>58805</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>275</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>316</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>357</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>398</v>
+      <c r="BJ39">
+        <v>1.227615168</v>
+      </c>
+      <c r="BK39">
+        <v>1.227615178</v>
+      </c>
+      <c r="BL39">
+        <v>1.227615167</v>
+      </c>
+      <c r="BM39">
+        <v>1.227615177</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9468,8 +8943,8 @@
       <c r="BE40">
         <v>1000</v>
       </c>
-      <c r="BF40" t="s">
-        <v>235</v>
+      <c r="BF40">
+        <v>33214089</v>
       </c>
       <c r="BG40">
         <v>58252361</v>
@@ -9480,17 +8955,17 @@
       <c r="BI40">
         <v>58805</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>276</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>317</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>399</v>
+      <c r="BJ40">
+        <v>1.227967132</v>
+      </c>
+      <c r="BK40">
+        <v>1.227967177</v>
+      </c>
+      <c r="BL40">
+        <v>1.227967216</v>
+      </c>
+      <c r="BM40">
+        <v>1.227967141</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9665,8 +9140,8 @@
       <c r="BE41">
         <v>980</v>
       </c>
-      <c r="BF41" t="s">
-        <v>236</v>
+      <c r="BF41">
+        <v>33188041</v>
       </c>
       <c r="BG41">
         <v>2019917</v>
@@ -9677,17 +9152,17 @@
       <c r="BI41">
         <v>58805</v>
       </c>
-      <c r="BJ41" t="s">
-        <v>277</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>318</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>400</v>
+      <c r="BJ41">
+        <v>1.22751922</v>
+      </c>
+      <c r="BK41">
+        <v>1.22751923</v>
+      </c>
+      <c r="BL41">
+        <v>1.227519219</v>
+      </c>
+      <c r="BM41">
+        <v>1.227519229</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9862,8 +9337,8 @@
       <c r="BE42">
         <v>1000</v>
       </c>
-      <c r="BF42" t="s">
-        <v>237</v>
+      <c r="BF42">
+        <v>33187100</v>
       </c>
       <c r="BG42">
         <v>198128</v>
@@ -9874,17 +9349,17 @@
       <c r="BI42">
         <v>58805</v>
       </c>
-      <c r="BJ42" t="s">
-        <v>278</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>319</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>360</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>401</v>
+      <c r="BJ42">
+        <v>1.227507304</v>
+      </c>
+      <c r="BK42">
+        <v>1.227507314</v>
+      </c>
+      <c r="BL42">
+        <v>1.227507303</v>
+      </c>
+      <c r="BM42">
+        <v>1.227507313</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -10059,8 +9534,8 @@
       <c r="BE43">
         <v>1000</v>
       </c>
-      <c r="BF43" t="s">
-        <v>238</v>
+      <c r="BF43">
+        <v>33185984</v>
       </c>
       <c r="BG43">
         <v>504780</v>
@@ -10071,17 +9546,17 @@
       <c r="BI43">
         <v>58805</v>
       </c>
-      <c r="BJ43" t="s">
-        <v>279</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>361</v>
-      </c>
-      <c r="BM43" t="s">
-        <v>402</v>
+      <c r="BJ43">
+        <v>1.227489619</v>
+      </c>
+      <c r="BK43">
+        <v>1.227489629</v>
+      </c>
+      <c r="BL43">
+        <v>1.227489618</v>
+      </c>
+      <c r="BM43">
+        <v>1.227489628</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -10256,8 +9731,8 @@
       <c r="BE44">
         <v>1000</v>
       </c>
-      <c r="BF44" t="s">
-        <v>239</v>
+      <c r="BF44">
+        <v>33195551</v>
       </c>
       <c r="BG44">
         <v>504779</v>
@@ -10268,17 +9743,17 @@
       <c r="BI44">
         <v>58805</v>
       </c>
-      <c r="BJ44" t="s">
-        <v>280</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>321</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>362</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>403</v>
+      <c r="BJ44">
+        <v>1.227670675</v>
+      </c>
+      <c r="BK44">
+        <v>1.227670659</v>
+      </c>
+      <c r="BL44">
+        <v>1.227670674</v>
+      </c>
+      <c r="BM44">
+        <v>1.227670684</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -10453,8 +9928,8 @@
       <c r="BE45">
         <v>1000</v>
       </c>
-      <c r="BF45" t="s">
-        <v>240</v>
+      <c r="BF45">
+        <v>33195548</v>
       </c>
       <c r="BG45">
         <v>5800422</v>
@@ -10465,17 +9940,17 @@
       <c r="BI45">
         <v>58805</v>
       </c>
-      <c r="BJ45" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>363</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>404</v>
+      <c r="BJ45">
+        <v>1.227670797</v>
+      </c>
+      <c r="BK45">
+        <v>1.227670781</v>
+      </c>
+      <c r="BL45">
+        <v>1.227670796</v>
+      </c>
+      <c r="BM45">
+        <v>1.227670806</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10650,8 +10125,8 @@
       <c r="BE46">
         <v>1000</v>
       </c>
-      <c r="BF46" t="s">
-        <v>241</v>
+      <c r="BF46">
+        <v>33191374</v>
       </c>
       <c r="BG46">
         <v>16916284</v>
@@ -10662,17 +10137,17 @@
       <c r="BI46">
         <v>58805</v>
       </c>
-      <c r="BJ46" t="s">
-        <v>282</v>
-      </c>
-      <c r="BK46" t="s">
-        <v>323</v>
-      </c>
-      <c r="BL46" t="s">
-        <v>364</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>405</v>
+      <c r="BJ46">
+        <v>1.227583526</v>
+      </c>
+      <c r="BK46">
+        <v>1.227583571</v>
+      </c>
+      <c r="BL46">
+        <v>1.22758361</v>
+      </c>
+      <c r="BM46">
+        <v>1.227583535</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -10692,10 +10167,10 @@
         <v>201</v>
       </c>
       <c r="F47">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G47">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -10704,61 +10179,61 @@
         <v>11</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K47">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L47">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="M47">
+        <v>2.32</v>
+      </c>
+      <c r="N47">
+        <v>1.76</v>
+      </c>
+      <c r="O47">
+        <v>1.8</v>
+      </c>
+      <c r="P47">
+        <v>2.12</v>
+      </c>
+      <c r="Q47">
         <v>2.22</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>1.82</v>
       </c>
-      <c r="O47">
+      <c r="S47">
         <v>1.9</v>
       </c>
-      <c r="P47">
-        <v>2.14</v>
-      </c>
-      <c r="Q47">
-        <v>2.3</v>
-      </c>
-      <c r="R47">
-        <v>1.77</v>
-      </c>
-      <c r="S47">
-        <v>1.87</v>
-      </c>
       <c r="T47">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="U47">
         <v>19</v>
       </c>
       <c r="V47">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W47">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X47">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y47">
         <v>980</v>
       </c>
       <c r="Z47">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AA47">
         <v>980</v>
       </c>
       <c r="AB47">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC47">
         <v>8.6</v>
@@ -10767,16 +10242,16 @@
         <v>10.5</v>
       </c>
       <c r="AE47">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF47">
-        <v>6.6</v>
+        <v>29</v>
       </c>
       <c r="AG47">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH47">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AI47">
         <v>980</v>
@@ -10785,22 +10260,22 @@
         <v>7.2</v>
       </c>
       <c r="AK47">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL47">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM47">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN47">
         <v>22</v>
       </c>
       <c r="AO47">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP47">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AQ47">
         <v>980</v>
@@ -10809,46 +10284,46 @@
         <v>10</v>
       </c>
       <c r="AS47">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT47">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AU47">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AV47">
-        <v>6.8</v>
+        <v>28</v>
       </c>
       <c r="AW47">
         <v>44</v>
       </c>
       <c r="AX47">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AY47">
         <v>980</v>
       </c>
       <c r="AZ47">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="BA47">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BB47">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="BC47">
         <v>980</v>
       </c>
       <c r="BD47">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BE47">
         <v>1000</v>
       </c>
       <c r="BF47" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="BG47">
         <v>4701919</v>
@@ -10860,16 +10335,16 @@
         <v>58805</v>
       </c>
       <c r="BJ47" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="BK47" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="BL47" t="s">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="BM47" t="s">
-        <v>406</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -10889,31 +10364,31 @@
         <v>202</v>
       </c>
       <c r="F48">
+        <v>3.15</v>
+      </c>
+      <c r="G48">
         <v>3.4</v>
       </c>
-      <c r="G48">
-        <v>3.6</v>
-      </c>
       <c r="H48">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="I48">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J48">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K48">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L48">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="M48">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="N48">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O48">
         <v>2.1</v>
@@ -10922,82 +10397,82 @@
         <v>1.81</v>
       </c>
       <c r="Q48">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R48">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S48">
         <v>2.22</v>
       </c>
       <c r="T48">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U48">
         <v>13</v>
       </c>
       <c r="V48">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="W48">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="X48">
+        <v>13.5</v>
+      </c>
+      <c r="Y48">
+        <v>15</v>
+      </c>
+      <c r="Z48">
+        <v>29</v>
+      </c>
+      <c r="AA48">
+        <v>34</v>
+      </c>
+      <c r="AB48">
+        <v>11.5</v>
+      </c>
+      <c r="AC48">
         <v>12.5</v>
-      </c>
-      <c r="Y48">
-        <v>14</v>
-      </c>
-      <c r="Z48">
-        <v>27</v>
-      </c>
-      <c r="AA48">
-        <v>30</v>
-      </c>
-      <c r="AB48">
-        <v>12</v>
-      </c>
-      <c r="AC48">
-        <v>13</v>
       </c>
       <c r="AD48">
         <v>7.2</v>
       </c>
       <c r="AE48">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF48">
         <v>10</v>
       </c>
       <c r="AG48">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH48">
+        <v>23</v>
+      </c>
+      <c r="AI48">
+        <v>27</v>
+      </c>
+      <c r="AJ48">
+        <v>19</v>
+      </c>
+      <c r="AK48">
         <v>22</v>
       </c>
-      <c r="AI48">
-        <v>25</v>
-      </c>
-      <c r="AJ48">
-        <v>21</v>
-      </c>
-      <c r="AK48">
-        <v>23</v>
-      </c>
       <c r="AL48">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM48">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN48">
         <v>16.5</v>
       </c>
       <c r="AO48">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP48">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AQ48">
         <v>40</v>
@@ -11006,46 +10481,46 @@
         <v>44</v>
       </c>
       <c r="AS48">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AT48">
+        <v>32</v>
+      </c>
+      <c r="AU48">
+        <v>38</v>
+      </c>
+      <c r="AV48">
+        <v>42</v>
+      </c>
+      <c r="AW48">
+        <v>50</v>
+      </c>
+      <c r="AX48">
+        <v>17</v>
+      </c>
+      <c r="AY48">
+        <v>100</v>
+      </c>
+      <c r="AZ48">
+        <v>30</v>
+      </c>
+      <c r="BA48">
         <v>36</v>
       </c>
-      <c r="AU48">
-        <v>40</v>
-      </c>
-      <c r="AV48">
-        <v>40</v>
-      </c>
-      <c r="AW48">
-        <v>55</v>
-      </c>
-      <c r="AX48">
+      <c r="BB48">
         <v>18</v>
       </c>
-      <c r="AY48">
-        <v>110</v>
-      </c>
-      <c r="AZ48">
-        <v>29</v>
-      </c>
-      <c r="BA48">
-        <v>40</v>
-      </c>
-      <c r="BB48">
-        <v>16</v>
-      </c>
       <c r="BC48">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD48">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BE48">
         <v>1000</v>
       </c>
       <c r="BF48" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="BG48">
         <v>328196</v>
@@ -11057,16 +10532,16 @@
         <v>58805</v>
       </c>
       <c r="BJ48" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="BK48" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="BL48" t="s">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="BM48" t="s">
-        <v>407</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -11086,46 +10561,46 @@
         <v>203</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="G49">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="H49">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="I49">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="J49">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K49">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L49">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="M49">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N49">
         <v>2.2</v>
       </c>
       <c r="O49">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="P49">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Q49">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="R49">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T49">
         <v>10</v>
@@ -11134,115 +10609,115 @@
         <v>11.5</v>
       </c>
       <c r="V49">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="W49">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="X49">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y49">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z49">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA49">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AB49">
+        <v>13.5</v>
+      </c>
+      <c r="AC49">
         <v>15.5</v>
       </c>
-      <c r="AC49">
-        <v>19</v>
-      </c>
       <c r="AD49">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE49">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AF49">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG49">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH49">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ49">
         <v>32</v>
       </c>
       <c r="AK49">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL49">
+        <v>18.5</v>
+      </c>
+      <c r="AM49">
         <v>21</v>
       </c>
-      <c r="AM49">
-        <v>980</v>
-      </c>
       <c r="AN49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO49">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP49">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AQ49">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AR49">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="AS49">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AT49">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AU49">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AV49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW49">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AX49">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="AY49">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AZ49">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA49">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BB49">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BC49">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="BD49">
-        <v>6.4</v>
+        <v>13.5</v>
       </c>
       <c r="BE49">
         <v>1000</v>
       </c>
       <c r="BF49" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="BG49">
         <v>25238903</v>
@@ -11254,16 +10729,16 @@
         <v>58805</v>
       </c>
       <c r="BJ49" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="BK49" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="BL49" t="s">
-        <v>367</v>
+        <v>227</v>
       </c>
       <c r="BM49" t="s">
-        <v>408</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:65">
@@ -11283,28 +10758,28 @@
         <v>204</v>
       </c>
       <c r="F50">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G50">
         <v>2.58</v>
       </c>
       <c r="H50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I50">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J50">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L50">
         <v>1.67</v>
       </c>
       <c r="M50">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="N50">
         <v>2.34</v>
@@ -11313,43 +10788,43 @@
         <v>2.5</v>
       </c>
       <c r="P50">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q50">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R50">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S50">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T50">
         <v>9.199999999999999</v>
       </c>
       <c r="U50">
+        <v>10</v>
+      </c>
+      <c r="V50">
         <v>9.6</v>
       </c>
-      <c r="V50">
-        <v>9.800000000000001</v>
-      </c>
       <c r="W50">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X50">
         <v>19</v>
       </c>
       <c r="Y50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z50">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA50">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB50">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC50">
         <v>9</v>
@@ -11370,7 +10845,7 @@
         <v>38</v>
       </c>
       <c r="AI50">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ50">
         <v>13.5</v>
@@ -11391,16 +10866,16 @@
         <v>21</v>
       </c>
       <c r="AP50">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AQ50">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR50">
         <v>32</v>
       </c>
       <c r="AS50">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AT50">
         <v>29</v>
@@ -11409,37 +10884,37 @@
         <v>32</v>
       </c>
       <c r="AV50">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AW50">
         <v>55</v>
       </c>
       <c r="AX50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY50">
         <v>140</v>
       </c>
       <c r="AZ50">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="BA50">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BB50">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="BC50">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BD50">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BE50">
         <v>1000</v>
       </c>
       <c r="BF50" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="BG50">
         <v>6432339</v>
@@ -11451,16 +10926,16 @@
         <v>58805</v>
       </c>
       <c r="BJ50" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="BK50" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="BL50" t="s">
-        <v>368</v>
+        <v>228</v>
       </c>
       <c r="BM50" t="s">
-        <v>409</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:65">
@@ -11480,43 +10955,43 @@
         <v>205</v>
       </c>
       <c r="F51">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H51">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I51">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J51">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K51">
         <v>3.9</v>
       </c>
       <c r="L51">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="M51">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="N51">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P51">
         <v>1.79</v>
       </c>
       <c r="Q51">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R51">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="S51">
         <v>2.26</v>
@@ -11525,7 +11000,7 @@
         <v>14.5</v>
       </c>
       <c r="U51">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="V51">
         <v>15</v>
@@ -11534,19 +11009,19 @@
         <v>17</v>
       </c>
       <c r="X51">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y51">
         <v>32</v>
       </c>
       <c r="Z51">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AA51">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB51">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC51">
         <v>10.5</v>
@@ -11555,28 +11030,28 @@
         <v>8</v>
       </c>
       <c r="AE51">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG51">
         <v>17</v>
       </c>
       <c r="AH51">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI51">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AJ51">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL51">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AM51">
         <v>10.5</v>
@@ -11588,55 +11063,55 @@
         <v>18</v>
       </c>
       <c r="AP51">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AQ51">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AR51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT51">
         <v>18</v>
       </c>
       <c r="AU51">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AV51">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW51">
         <v>34</v>
       </c>
       <c r="AX51">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY51">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AZ51">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BB51">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="BC51">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD51">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="BE51">
         <v>980</v>
       </c>
       <c r="BF51" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="BG51">
         <v>329419</v>
@@ -11648,16 +11123,16 @@
         <v>58805</v>
       </c>
       <c r="BJ51" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="BK51" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="BL51" t="s">
-        <v>369</v>
+        <v>229</v>
       </c>
       <c r="BM51" t="s">
-        <v>410</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:65">
@@ -11677,43 +11152,43 @@
         <v>206</v>
       </c>
       <c r="F52">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="G52">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H52">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="I52">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="J52">
         <v>3.25</v>
       </c>
       <c r="K52">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L52">
         <v>1.72</v>
       </c>
       <c r="M52">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N52">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="O52">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="P52">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q52">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R52">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="S52">
         <v>2.06</v>
@@ -11722,31 +11197,31 @@
         <v>9.6</v>
       </c>
       <c r="U52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V52">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W52">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X52">
+        <v>12.5</v>
+      </c>
+      <c r="Y52">
+        <v>16</v>
+      </c>
+      <c r="Z52">
+        <v>7.4</v>
+      </c>
+      <c r="AA52">
+        <v>36</v>
+      </c>
+      <c r="AB52">
+        <v>10</v>
+      </c>
+      <c r="AC52">
         <v>12</v>
-      </c>
-      <c r="Y52">
-        <v>15</v>
-      </c>
-      <c r="Z52">
-        <v>24</v>
-      </c>
-      <c r="AA52">
-        <v>34</v>
-      </c>
-      <c r="AB52">
-        <v>10.5</v>
-      </c>
-      <c r="AC52">
-        <v>13</v>
       </c>
       <c r="AD52">
         <v>6.8</v>
@@ -11758,82 +11233,82 @@
         <v>10.5</v>
       </c>
       <c r="AG52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH52">
         <v>22</v>
       </c>
       <c r="AI52">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK52">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL52">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM52">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN52">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ52">
         <v>55</v>
       </c>
       <c r="AR52">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AS52">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AT52">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AU52">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AV52">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AW52">
         <v>70</v>
       </c>
       <c r="AX52">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY52">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AZ52">
         <v>7.8</v>
       </c>
       <c r="BA52">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB52">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="BC52">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD52">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="BE52">
         <v>1000</v>
       </c>
       <c r="BF52" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="BG52">
         <v>46783501</v>
@@ -11845,16 +11320,16 @@
         <v>58805</v>
       </c>
       <c r="BJ52" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="BK52" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="BL52" t="s">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="BM52" t="s">
-        <v>411</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="207">
   <si>
     <t>League</t>
   </si>
@@ -635,96 +635,6 @@
   </si>
   <si>
     <t>Club Sportivo Ameliano</t>
-  </si>
-  <si>
-    <t>33205495</t>
-  </si>
-  <si>
-    <t>33188038</t>
-  </si>
-  <si>
-    <t>33195561</t>
-  </si>
-  <si>
-    <t>33187102</t>
-  </si>
-  <si>
-    <t>33188042</t>
-  </si>
-  <si>
-    <t>33195589</t>
-  </si>
-  <si>
-    <t>1.227829350</t>
-  </si>
-  <si>
-    <t>1.227519328</t>
-  </si>
-  <si>
-    <t>1.227670918</t>
-  </si>
-  <si>
-    <t>1.227507465</t>
-  </si>
-  <si>
-    <t>1.227519436</t>
-  </si>
-  <si>
-    <t>1.227671039</t>
-  </si>
-  <si>
-    <t>1.227829360</t>
-  </si>
-  <si>
-    <t>1.227519338</t>
-  </si>
-  <si>
-    <t>1.227670902</t>
-  </si>
-  <si>
-    <t>1.227507510</t>
-  </si>
-  <si>
-    <t>1.227519446</t>
-  </si>
-  <si>
-    <t>1.227671023</t>
-  </si>
-  <si>
-    <t>1.227829349</t>
-  </si>
-  <si>
-    <t>1.227519327</t>
-  </si>
-  <si>
-    <t>1.227670917</t>
-  </si>
-  <si>
-    <t>1.227507549</t>
-  </si>
-  <si>
-    <t>1.227519435</t>
-  </si>
-  <si>
-    <t>1.227671038</t>
-  </si>
-  <si>
-    <t>1.227829359</t>
-  </si>
-  <si>
-    <t>1.227519337</t>
-  </si>
-  <si>
-    <t>1.227670927</t>
-  </si>
-  <si>
-    <t>1.227507474</t>
-  </si>
-  <si>
-    <t>1.227519445</t>
-  </si>
-  <si>
-    <t>1.227671048</t>
   </si>
 </sst>
 </file>
@@ -10322,8 +10232,8 @@
       <c r="BE47">
         <v>1000</v>
       </c>
-      <c r="BF47" t="s">
-        <v>207</v>
+      <c r="BF47">
+        <v>33205495</v>
       </c>
       <c r="BG47">
         <v>4701919</v>
@@ -10334,17 +10244,17 @@
       <c r="BI47">
         <v>58805</v>
       </c>
-      <c r="BJ47" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK47" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL47" t="s">
-        <v>225</v>
-      </c>
-      <c r="BM47" t="s">
-        <v>231</v>
+      <c r="BJ47">
+        <v>1.22782935</v>
+      </c>
+      <c r="BK47">
+        <v>1.22782936</v>
+      </c>
+      <c r="BL47">
+        <v>1.227829349</v>
+      </c>
+      <c r="BM47">
+        <v>1.227829359</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -10519,8 +10429,8 @@
       <c r="BE48">
         <v>1000</v>
       </c>
-      <c r="BF48" t="s">
-        <v>208</v>
+      <c r="BF48">
+        <v>33188038</v>
       </c>
       <c r="BG48">
         <v>328196</v>
@@ -10531,17 +10441,17 @@
       <c r="BI48">
         <v>58805</v>
       </c>
-      <c r="BJ48" t="s">
-        <v>214</v>
-      </c>
-      <c r="BK48" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL48" t="s">
-        <v>226</v>
-      </c>
-      <c r="BM48" t="s">
-        <v>232</v>
+      <c r="BJ48">
+        <v>1.227519328</v>
+      </c>
+      <c r="BK48">
+        <v>1.227519338</v>
+      </c>
+      <c r="BL48">
+        <v>1.227519327</v>
+      </c>
+      <c r="BM48">
+        <v>1.227519337</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -10716,8 +10626,8 @@
       <c r="BE49">
         <v>1000</v>
       </c>
-      <c r="BF49" t="s">
-        <v>209</v>
+      <c r="BF49">
+        <v>33195561</v>
       </c>
       <c r="BG49">
         <v>25238903</v>
@@ -10728,17 +10638,17 @@
       <c r="BI49">
         <v>58805</v>
       </c>
-      <c r="BJ49" t="s">
-        <v>215</v>
-      </c>
-      <c r="BK49" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM49" t="s">
-        <v>233</v>
+      <c r="BJ49">
+        <v>1.227670918</v>
+      </c>
+      <c r="BK49">
+        <v>1.227670902</v>
+      </c>
+      <c r="BL49">
+        <v>1.227670917</v>
+      </c>
+      <c r="BM49">
+        <v>1.227670927</v>
       </c>
     </row>
     <row r="50" spans="1:65">
@@ -10913,8 +10823,8 @@
       <c r="BE50">
         <v>1000</v>
       </c>
-      <c r="BF50" t="s">
-        <v>210</v>
+      <c r="BF50">
+        <v>33187102</v>
       </c>
       <c r="BG50">
         <v>6432339</v>
@@ -10925,17 +10835,17 @@
       <c r="BI50">
         <v>58805</v>
       </c>
-      <c r="BJ50" t="s">
-        <v>216</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM50" t="s">
-        <v>234</v>
+      <c r="BJ50">
+        <v>1.227507465</v>
+      </c>
+      <c r="BK50">
+        <v>1.22750751</v>
+      </c>
+      <c r="BL50">
+        <v>1.227507549</v>
+      </c>
+      <c r="BM50">
+        <v>1.227507474</v>
       </c>
     </row>
     <row r="51" spans="1:65">
@@ -11110,8 +11020,8 @@
       <c r="BE51">
         <v>980</v>
       </c>
-      <c r="BF51" t="s">
-        <v>211</v>
+      <c r="BF51">
+        <v>33188042</v>
       </c>
       <c r="BG51">
         <v>329419</v>
@@ -11122,17 +11032,17 @@
       <c r="BI51">
         <v>58805</v>
       </c>
-      <c r="BJ51" t="s">
-        <v>217</v>
-      </c>
-      <c r="BK51" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL51" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM51" t="s">
-        <v>235</v>
+      <c r="BJ51">
+        <v>1.227519436</v>
+      </c>
+      <c r="BK51">
+        <v>1.227519446</v>
+      </c>
+      <c r="BL51">
+        <v>1.227519435</v>
+      </c>
+      <c r="BM51">
+        <v>1.227519445</v>
       </c>
     </row>
     <row r="52" spans="1:65">
@@ -11307,8 +11217,8 @@
       <c r="BE52">
         <v>1000</v>
       </c>
-      <c r="BF52" t="s">
-        <v>212</v>
+      <c r="BF52">
+        <v>33195589</v>
       </c>
       <c r="BG52">
         <v>46783501</v>
@@ -11319,17 +11229,17 @@
       <c r="BI52">
         <v>58805</v>
       </c>
-      <c r="BJ52" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK52" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL52" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM52" t="s">
-        <v>236</v>
+      <c r="BJ52">
+        <v>1.227671039</v>
+      </c>
+      <c r="BK52">
+        <v>1.227671023</v>
+      </c>
+      <c r="BL52">
+        <v>1.227671038</v>
+      </c>
+      <c r="BM52">
+        <v>1.227671048</v>
       </c>
     </row>
   </sheetData>
